--- a/particleID_summary.xlsx
+++ b/particleID_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B58C6C-3F32-469D-A9B0-B2EFAB38A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9F8A2-FAD7-4891-8BDF-F3647EDEC051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
   </bookViews>
@@ -606,13 +606,28 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,16 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,22 +681,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFDF8F-F407-4400-858A-9062197B06F7}">
   <dimension ref="B1:S190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,30 +1043,30 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -1090,7 +1090,7 @@
       <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="40" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="4">
@@ -1109,7 +1109,7 @@
       <c r="R3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       <c r="I4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="36"/>
+      <c r="J4" s="41"/>
       <c r="L4" s="6">
         <v>90</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="R4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="36"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
@@ -1230,10 +1230,10 @@
         <f>P6+1000</f>
         <v>1002</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="29">
         <v>2</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="29">
         <v>11</v>
       </c>
       <c r="R6" s="24" t="s">
@@ -1356,10 +1356,10 @@
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="29">
         <v>5</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="29">
         <v>16</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1394,19 +1394,19 @@
       <c r="J10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="L10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="29">
         <v>6</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="29">
         <v>16</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -1444,10 +1444,10 @@
       <c r="L11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="35">
         <v>44389</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="11">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -1489,10 +1489,10 @@
       <c r="L12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="35">
         <v>44389</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="11">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -1534,10 +1534,10 @@
       <c r="L13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="35">
         <v>44389</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="11">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -1580,10 +1580,10 @@
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="29">
         <v>10</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="29">
         <v>16</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -1618,20 +1618,20 @@
       <c r="J15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="11">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="P15" s="52">
+      <c r="P15" s="29">
         <f>P14+1</f>
         <v>11</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="29">
         <v>16</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -1669,10 +1669,10 @@
       <c r="L16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="35">
         <v>44638</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="11">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -1715,10 +1715,10 @@
       <c r="L17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="35">
         <v>44638</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="11">
         <f t="shared" si="0"/>
         <v>1013</v>
@@ -1762,11 +1762,11 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="29">
         <f>P17+1</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="29">
         <v>16</v>
       </c>
       <c r="R18" s="24" t="s">
@@ -1883,11 +1883,11 @@
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="P21" s="52">
+      <c r="P21" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Q21" s="52">
+      <c r="Q21" s="29">
         <v>16</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2234,11 +2234,11 @@
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="P30" s="52">
+      <c r="P30" s="29">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="29">
         <v>16</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -2316,11 +2316,11 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="P32" s="52">
+      <c r="P32" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q32" s="52">
+      <c r="Q32" s="29">
         <v>16</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -2437,11 +2437,11 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="P35" s="52">
+      <c r="P35" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q35" s="52">
+      <c r="Q35" s="29">
         <v>16</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -2624,11 +2624,11 @@
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="P40" s="52">
+      <c r="P40" s="29">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="Q40" s="52">
+      <c r="Q40" s="29">
         <v>16</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -2667,11 +2667,11 @@
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="P41" s="52">
+      <c r="P41" s="29">
         <f>P40+1</f>
         <v>37</v>
       </c>
-      <c r="Q41" s="52">
+      <c r="Q41" s="29">
         <v>16</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -2745,11 +2745,11 @@
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="P43" s="52">
+      <c r="P43" s="29">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="Q43" s="52">
+      <c r="Q43" s="29">
         <v>22.6</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -2788,11 +2788,11 @@
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="P44" s="52">
+      <c r="P44" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q44" s="52">
+      <c r="Q44" s="29">
         <v>22.6</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -2831,11 +2831,11 @@
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
-      <c r="P45" s="52">
+      <c r="P45" s="29">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="Q45" s="52">
+      <c r="Q45" s="29">
         <v>22.6</v>
       </c>
       <c r="R45" s="24" t="s">
@@ -2874,11 +2874,11 @@
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="P46" s="52">
+      <c r="P46" s="29">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="Q46" s="52">
+      <c r="Q46" s="29">
         <v>22.6</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -2917,11 +2917,11 @@
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="P47" s="52">
+      <c r="P47" s="29">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="Q47" s="52">
+      <c r="Q47" s="29">
         <v>22.6</v>
       </c>
       <c r="R47" s="24" t="s">
@@ -2960,11 +2960,11 @@
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-      <c r="P48" s="52">
+      <c r="P48" s="29">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="Q48" s="52">
+      <c r="Q48" s="29">
         <v>22.6</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -3003,11 +3003,11 @@
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="P49" s="52">
+      <c r="P49" s="29">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q49" s="52">
+      <c r="Q49" s="29">
         <v>22.6</v>
       </c>
       <c r="R49" s="24" t="s">
@@ -3081,11 +3081,11 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="P51" s="52">
+      <c r="P51" s="29">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q51" s="52">
+      <c r="Q51" s="29">
         <v>22.6</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -3124,11 +3124,11 @@
         <f t="shared" si="0"/>
         <v>1048</v>
       </c>
-      <c r="P52" s="52">
+      <c r="P52" s="29">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q52" s="52">
+      <c r="Q52" s="29">
         <v>22.6</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -3167,11 +3167,11 @@
         <f t="shared" si="0"/>
         <v>1049</v>
       </c>
-      <c r="P53" s="52">
+      <c r="P53" s="29">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q53" s="52">
+      <c r="Q53" s="29">
         <v>22.6</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -3206,11 +3206,11 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="P54" s="52">
+      <c r="P54" s="29">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q54" s="52">
+      <c r="Q54" s="29">
         <v>22.6</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -3249,11 +3249,11 @@
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="P55" s="52">
+      <c r="P55" s="29">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="Q55" s="52">
+      <c r="Q55" s="29">
         <v>22.6</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -3292,11 +3292,11 @@
         <f t="shared" si="0"/>
         <v>1052</v>
       </c>
-      <c r="P56" s="52">
+      <c r="P56" s="29">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="Q56" s="52">
+      <c r="Q56" s="29">
         <v>22.6</v>
       </c>
       <c r="R56" s="1" t="s">
@@ -3335,11 +3335,11 @@
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="P57" s="52">
+      <c r="P57" s="29">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="Q57" s="52">
+      <c r="Q57" s="29">
         <v>22.6</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -3413,11 +3413,11 @@
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="P59" s="52">
+      <c r="P59" s="29">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q59" s="52">
+      <c r="Q59" s="29">
         <v>22.6</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -3492,11 +3492,11 @@
         <f t="shared" si="0"/>
         <v>1057</v>
       </c>
-      <c r="P61" s="52">
+      <c r="P61" s="29">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="Q61" s="52">
+      <c r="Q61" s="29">
         <v>22.6</v>
       </c>
       <c r="R61" s="24" t="s">
@@ -3531,11 +3531,11 @@
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
-      <c r="P62" s="52">
+      <c r="P62" s="29">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="Q62" s="52">
+      <c r="Q62" s="29">
         <v>22.6</v>
       </c>
       <c r="R62" s="24" t="s">
@@ -3653,11 +3653,11 @@
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
-      <c r="P65" s="52">
+      <c r="P65" s="29">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="Q65" s="52">
+      <c r="Q65" s="29">
         <v>22.6</v>
       </c>
       <c r="R65" s="2" t="s">
@@ -3699,11 +3699,11 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="P66" s="52">
+      <c r="P66" s="29">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="Q66" s="52">
+      <c r="Q66" s="29">
         <v>22.6</v>
       </c>
       <c r="R66" s="2" t="s">
@@ -3742,11 +3742,11 @@
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
-      <c r="P67" s="52">
+      <c r="P67" s="29">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="Q67" s="52">
+      <c r="Q67" s="29">
         <v>22.6</v>
       </c>
       <c r="R67" s="24" t="s">
@@ -3824,11 +3824,11 @@
         <f t="shared" si="0"/>
         <v>1065</v>
       </c>
-      <c r="P69" s="52">
+      <c r="P69" s="29">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q69" s="52">
+      <c r="Q69" s="29">
         <v>22.6</v>
       </c>
       <c r="R69" s="1" t="s">
@@ -5687,10 +5687,10 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="10">
-        <f t="shared" ref="B142:B190" si="2">B141+1</f>
+        <f t="shared" ref="B142:B174" si="2">B141+1</f>
         <v>138</v>
       </c>
-      <c r="C142" s="53" t="s">
+      <c r="C142" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -5702,7 +5702,7 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="C143" s="54" t="s">
+      <c r="C143" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -5714,7 +5714,7 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="C144" s="55" t="s">
+      <c r="C144" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -5738,7 +5738,7 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="C146" s="54" t="s">
+      <c r="C146" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -5750,7 +5750,7 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="C147" s="55" t="s">
+      <c r="C147" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -5774,7 +5774,7 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C149" s="55" t="s">
+      <c r="C149" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -5786,7 +5786,7 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="C150" s="54" t="s">
+      <c r="C150" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -5798,7 +5798,7 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="C151" s="55" t="s">
+      <c r="C151" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -5822,7 +5822,7 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="C153" s="54" t="s">
+      <c r="C153" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -5830,11 +5830,11 @@
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="56">
+      <c r="B154" s="33">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="C154" s="53" t="s">
+      <c r="C154" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="56">
+      <c r="B155" s="33">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
@@ -5854,11 +5854,11 @@
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="56">
+      <c r="B156" s="33">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="C156" s="55" t="s">
+      <c r="C156" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D156" s="3" t="s">
@@ -5866,7 +5866,7 @@
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="56">
+      <c r="B157" s="33">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
@@ -5878,11 +5878,11 @@
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="56">
+      <c r="B158" s="33">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="C158" s="54" t="s">
+      <c r="C158" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -5890,11 +5890,11 @@
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="56">
+      <c r="B159" s="33">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="C159" s="55" t="s">
+      <c r="C159" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -5902,11 +5902,11 @@
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="56">
+      <c r="B160" s="33">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="C160" s="53" t="s">
+      <c r="C160" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -5914,11 +5914,11 @@
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="56">
+      <c r="B161" s="33">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="C161" s="53" t="s">
+      <c r="C161" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -5930,7 +5930,7 @@
         <f>B161+1</f>
         <v>158</v>
       </c>
-      <c r="C162" s="54" t="s">
+      <c r="C162" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -5954,7 +5954,7 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="C164" s="55" t="s">
+      <c r="C164" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -5978,7 +5978,7 @@
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="C166" s="55" t="s">
+      <c r="C166" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -6002,7 +6002,7 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="C168" s="54" t="s">
+      <c r="C168" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -6010,11 +6010,11 @@
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="57">
+      <c r="B169" s="34">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="C169" s="53" t="s">
+      <c r="C169" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -6022,11 +6022,11 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="57">
+      <c r="B170" s="34">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="C170" s="53" t="s">
+      <c r="C170" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -6048,7 +6048,7 @@
       <c r="B172" s="4">
         <v>168</v>
       </c>
-      <c r="C172" s="55" t="s">
+      <c r="C172" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -6059,7 +6059,7 @@
       <c r="B173" s="4">
         <v>169</v>
       </c>
-      <c r="C173" s="54" t="s">
+      <c r="C173" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -6071,7 +6071,7 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="C174" s="55" t="s">
+      <c r="C174" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -6169,63 +6169,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="36"/>
+      <c r="E2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="O2" s="37" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="O2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39" t="s">
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="40"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -6270,10 +6270,10 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="36"/>
       <c r="E4" s="4">
         <v>3</v>
       </c>
@@ -6356,11 +6356,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="E6" s="6">
         <v>42</v>
       </c>
@@ -6405,10 +6405,10 @@
       <c r="A7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="35">
         <v>44638</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="36"/>
       <c r="E7" s="6">
         <v>4</v>
       </c>
@@ -6453,10 +6453,10 @@
       <c r="A8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="35">
         <v>44638</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="36"/>
       <c r="E8" s="8">
         <v>105</v>
       </c>
@@ -6917,10 +6917,10 @@
       <c r="G19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="29">
         <v>6</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="28" t="s">
@@ -6958,10 +6958,10 @@
       <c r="G20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="29">
         <v>11</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="28" t="s">
@@ -6987,10 +6987,10 @@
       <c r="G21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="29">
         <v>48</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="27" t="s">
@@ -6998,19 +6998,19 @@
       </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="52">
+      <c r="E22" s="29">
         <v>50</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="29">
         <v>62</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="27" t="s">
@@ -7018,10 +7018,10 @@
       </c>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="52">
+      <c r="E23" s="29">
         <v>26</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="28" t="s">
@@ -7029,10 +7029,10 @@
       </c>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="52">
+      <c r="E24" s="29">
         <v>55</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -7040,10 +7040,10 @@
       </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="52">
+      <c r="E25" s="29">
         <v>37</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="28" t="s">
@@ -7052,6 +7052,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -7060,11 +7065,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/particleID_summary.xlsx
+++ b/particleID_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C9F8A2-FAD7-4891-8BDF-F3647EDEC051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F95DD-524F-4440-A1E1-DB91C935701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
   </bookViews>
   <sheets>
     <sheet name="RFID rock sizes" sheetId="2" r:id="rId1"/>
-    <sheet name="Spring Deployment" sheetId="1" r:id="rId2"/>
+    <sheet name="Particle Movement" sheetId="3" r:id="rId2"/>
+    <sheet name="Bed GSD" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,57 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="45">
-  <si>
-    <t>SUMMER 2021: PLACED</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>July 12, 2021</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>July 12, 2022</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>July 12, 2023</t>
-  </si>
-  <si>
-    <t>GROUP 1: DOWN</t>
-  </si>
-  <si>
-    <t>GROUP 2: UP</t>
-  </si>
-  <si>
-    <t>GROUP 3: UP</t>
-  </si>
-  <si>
-    <t>Paint number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag ID </t>
-  </si>
-  <si>
-    <t>untagged</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="46">
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Found?</t>
-  </si>
-  <si>
-    <t>WHEN WE ARRIVED FOR SNOWMELT</t>
-  </si>
-  <si>
-    <t>SPRING 2022: PLACED</t>
   </si>
   <si>
     <t>BY ROCK NUMBER</t>
@@ -143,21 +96,6 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t xml:space="preserve">#4 </t>
-  </si>
-  <si>
-    <t>GROUP 4: UP (down of sonde)</t>
-  </si>
-  <si>
-    <t>GROUP 5: DOWN (piezo3)</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>downstream</t>
   </si>
   <si>
@@ -172,12 +110,78 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>PARTICLE ID</t>
+  </si>
+  <si>
+    <t>La Jara - Full</t>
+  </si>
+  <si>
+    <t>Gravelometer Size</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>cumulative finer</t>
+  </si>
+  <si>
+    <t>% finer</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FULL STREAM - D50</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>D50 Interpolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1 </t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>FULL STREAM - D84</t>
+  </si>
+  <si>
+    <t>D84 Interpolation</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,28 +213,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,18 +336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,8 +352,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -355,30 +398,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -516,11 +535,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,16 +714,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,79 +735,76 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -630,67 +813,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,6 +961,1003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> GSD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bed GSD'!$A$4:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bed GSD'!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3696682464454977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.109004739336493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.957345971563981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.753554502369667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.132701421800952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.511848341232238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.099526066350705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.838862559241704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-802B-400D-8640-D8DEDA448640}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313798559"/>
+        <c:axId val="313796639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313798559"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313796639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="313796639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313798559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB51523-A062-C3FF-3F5A-112825145564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFDF8F-F407-4400-858A-9062197B06F7}">
-  <dimension ref="B1:S190"/>
+  <dimension ref="B1:S240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,25 +2287,25 @@
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
       <c r="F2" s="37" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
@@ -1070,28 +2313,28 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4">
         <v>128</v>
@@ -1101,39 +2344,39 @@
         <v>5</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J4" s="41"/>
       <c r="L4" s="6">
@@ -1144,13 +2387,13 @@
         <v>13</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="S4" s="41"/>
     </row>
@@ -1214,10 +2457,10 @@
         <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L6" s="9">
         <v>45</v>
@@ -1230,17 +2473,17 @@
         <f>P6+1000</f>
         <v>1002</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="26">
         <v>2</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="26">
         <v>11</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -1263,10 +2506,10 @@
         <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L7" s="10">
         <v>32</v>
@@ -1308,10 +2551,10 @@
         <v>128</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K8" s="11"/>
       <c r="O8" s="11">
@@ -1347,26 +2590,26 @@
         <v>128</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="26">
         <v>5</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="26">
         <v>16</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -1389,13 +2632,13 @@
         <v>90</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
@@ -1403,17 +2646,17 @@
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="26">
         <v>6</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="26">
         <v>16</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1436,13 +2679,13 @@
         <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M11" s="35">
         <v>44389</v>
@@ -1481,13 +2724,13 @@
         <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M12" s="35">
         <v>44389</v>
@@ -1526,13 +2769,13 @@
         <v>90</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M13" s="35">
         <v>44389</v>
@@ -1571,26 +2814,26 @@
         <v>90</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="26">
         <v>10</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="26">
         <v>16</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -1613,13 +2856,13 @@
         <v>90</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
@@ -1627,18 +2870,18 @@
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="26">
         <f>P14+1</f>
         <v>11</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="26">
         <v>16</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -1661,13 +2904,13 @@
         <v>90</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M16" s="35">
         <v>44638</v>
@@ -1707,13 +2950,13 @@
         <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M17" s="35">
         <v>44638</v>
@@ -1753,27 +2996,27 @@
         <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="26">
         <f>P17+1</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="26">
         <v>16</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -1796,10 +3039,10 @@
         <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="0"/>
@@ -1835,10 +3078,10 @@
         <v>90</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="0"/>
@@ -1874,27 +3117,27 @@
         <v>90</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="26">
         <v>16</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -1952,10 +3195,10 @@
         <v>64</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="0"/>
@@ -1991,10 +3234,10 @@
         <v>64</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="0"/>
@@ -2030,10 +3273,10 @@
         <v>64</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" si="0"/>
@@ -2069,10 +3312,10 @@
         <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="0"/>
@@ -2108,10 +3351,10 @@
         <v>64</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="0"/>
@@ -2147,10 +3390,10 @@
         <v>64</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="0"/>
@@ -2186,10 +3429,10 @@
         <v>64</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="0"/>
@@ -2225,27 +3468,27 @@
         <v>64</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P30" s="26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="26">
         <v>16</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -2268,10 +3511,10 @@
         <v>64</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="0"/>
@@ -2307,27 +3550,27 @@
         <v>64</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="26">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="26">
         <v>16</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -2350,10 +3593,10 @@
         <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" si="0"/>
@@ -2389,10 +3632,10 @@
         <v>64</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O34" s="11">
         <f t="shared" si="0"/>
@@ -2428,27 +3671,27 @@
         <v>64</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="26">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="26">
         <v>16</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
@@ -2506,10 +3749,10 @@
         <v>64</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="0"/>
@@ -2545,10 +3788,10 @@
         <v>64</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="0"/>
@@ -2624,18 +3867,18 @@
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="P40" s="29">
+      <c r="P40" s="26">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="26">
         <v>16</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -2658,27 +3901,27 @@
         <v>64</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O41" s="11">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="P41" s="29">
+      <c r="P41" s="26">
         <f>P40+1</f>
         <v>37</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q41" s="26">
         <v>16</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -2701,10 +3944,10 @@
         <v>64</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" si="0"/>
@@ -2745,18 +3988,18 @@
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="P43" s="29">
+      <c r="P43" s="26">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="26">
         <v>22.6</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
@@ -2779,27 +4022,27 @@
         <v>64</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O44" s="11">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P44" s="26">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="26">
         <v>22.6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -2822,27 +4065,27 @@
         <v>64</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O45" s="11">
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
-      <c r="P45" s="29">
+      <c r="P45" s="26">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="Q45" s="29">
+      <c r="Q45" s="26">
         <v>22.6</v>
       </c>
       <c r="R45" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S45" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -2865,27 +4108,27 @@
         <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="P46" s="29">
+      <c r="P46" s="26">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="26">
         <v>22.6</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -2908,27 +4151,27 @@
         <v>64</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="P47" s="29">
+      <c r="P47" s="26">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="Q47" s="29">
+      <c r="Q47" s="26">
         <v>22.6</v>
       </c>
       <c r="R47" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S47" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -2951,27 +4194,27 @@
         <v>64</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O48" s="11">
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-      <c r="P48" s="29">
+      <c r="P48" s="26">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="26">
         <v>22.6</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
@@ -2994,27 +4237,27 @@
         <v>64</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="P49" s="29">
+      <c r="P49" s="26">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q49" s="29">
+      <c r="Q49" s="26">
         <v>22.6</v>
       </c>
       <c r="R49" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S49" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
@@ -3037,10 +4280,10 @@
         <v>64</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O50" s="11">
         <f t="shared" si="0"/>
@@ -3081,18 +4324,18 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="26">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q51" s="29">
+      <c r="Q51" s="26">
         <v>22.6</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
@@ -3115,27 +4358,27 @@
         <v>64</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O52" s="11">
         <f t="shared" si="0"/>
         <v>1048</v>
       </c>
-      <c r="P52" s="29">
+      <c r="P52" s="26">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q52" s="29">
+      <c r="Q52" s="26">
         <v>22.6</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
@@ -3158,27 +4401,27 @@
         <v>64</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O53" s="11">
         <f t="shared" si="0"/>
         <v>1049</v>
       </c>
-      <c r="P53" s="29">
+      <c r="P53" s="26">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q53" s="29">
+      <c r="Q53" s="26">
         <v>22.6</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
@@ -3206,18 +4449,18 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="26">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="26">
         <v>22.6</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
@@ -3240,27 +4483,27 @@
         <v>45</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O55" s="11">
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="P55" s="29">
+      <c r="P55" s="26">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="Q55" s="29">
+      <c r="Q55" s="26">
         <v>22.6</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
@@ -3283,27 +4526,27 @@
         <v>45</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O56" s="11">
         <f t="shared" si="0"/>
         <v>1052</v>
       </c>
-      <c r="P56" s="29">
+      <c r="P56" s="26">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="Q56" s="26">
         <v>22.6</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
@@ -3326,27 +4569,27 @@
         <v>45</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O57" s="11">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="P57" s="29">
+      <c r="P57" s="26">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q57" s="26">
         <v>22.6</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
@@ -3404,27 +4647,27 @@
         <v>45</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O59" s="11">
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="P59" s="29">
+      <c r="P59" s="26">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q59" s="26">
         <v>22.6</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
@@ -3483,27 +4726,27 @@
         <v>45</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="0"/>
         <v>1057</v>
       </c>
-      <c r="P61" s="29">
+      <c r="P61" s="26">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="Q61" s="29">
+      <c r="Q61" s="26">
         <v>22.6</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S61" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
@@ -3531,18 +4774,18 @@
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
-      <c r="P62" s="29">
+      <c r="P62" s="26">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="26">
         <v>22.6</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S62" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
@@ -3565,10 +4808,10 @@
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O63" s="11">
         <f t="shared" si="0"/>
@@ -3604,13 +4847,13 @@
         <v>45</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O64" s="11">
         <f t="shared" si="0"/>
@@ -3644,27 +4887,27 @@
         <v>45</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O65" s="11">
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
-      <c r="P65" s="29">
+      <c r="P65" s="26">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="Q65" s="29">
+      <c r="Q65" s="26">
         <v>22.6</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
@@ -3687,30 +4930,30 @@
         <v>45</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N66" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O66" s="11">
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="P66" s="29">
+      <c r="P66" s="26">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="Q66" s="29">
+      <c r="Q66" s="26">
         <v>22.6</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
@@ -3733,27 +4976,27 @@
         <v>45</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
-      <c r="P67" s="29">
+      <c r="P67" s="26">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="Q67" s="29">
+      <c r="Q67" s="26">
         <v>22.6</v>
       </c>
       <c r="R67" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S67" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
@@ -3776,10 +5019,10 @@
         <v>45</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O68" s="11">
         <f t="shared" si="0"/>
@@ -3815,27 +5058,27 @@
         <v>45</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O69" s="11">
         <f t="shared" si="0"/>
         <v>1065</v>
       </c>
-      <c r="P69" s="29">
+      <c r="P69" s="26">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q69" s="29">
+      <c r="Q69" s="26">
         <v>22.6</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
@@ -3893,10 +5136,10 @@
         <v>45</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
@@ -3919,10 +5162,10 @@
         <v>45</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
@@ -3945,10 +5188,10 @@
         <v>45</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
@@ -3971,10 +5214,10 @@
         <v>45</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
@@ -3997,10 +5240,10 @@
         <v>45</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
@@ -4023,10 +5266,10 @@
         <v>45</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
@@ -4049,10 +5292,10 @@
         <v>45</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
@@ -4075,10 +5318,10 @@
         <v>45</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
@@ -4101,10 +5344,10 @@
         <v>45</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
@@ -4127,10 +5370,10 @@
         <v>45</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -4153,10 +5396,10 @@
         <v>45</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -4179,10 +5422,10 @@
         <v>45</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -4205,10 +5448,10 @@
         <v>45</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -4231,10 +5474,10 @@
         <v>45</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -4257,10 +5500,10 @@
         <v>45</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -4283,10 +5526,10 @@
         <v>45</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -4294,7 +5537,7 @@
         <v>83</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D87" s="10">
         <v>32</v>
@@ -4309,10 +5552,10 @@
         <v>45</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -4357,10 +5600,10 @@
         <v>45</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -4405,10 +5648,10 @@
         <v>45</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -4431,10 +5674,10 @@
         <v>45</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -4457,10 +5700,10 @@
         <v>45</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -4483,10 +5726,10 @@
         <v>45</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -4509,10 +5752,10 @@
         <v>45</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -4535,10 +5778,10 @@
         <v>45</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -4561,10 +5804,10 @@
         <v>45</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -4587,10 +5830,10 @@
         <v>32</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -4613,10 +5856,10 @@
         <v>32</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -4639,10 +5882,10 @@
         <v>32</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -4665,10 +5908,10 @@
         <v>32</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -4691,10 +5934,10 @@
         <v>32</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -4717,10 +5960,10 @@
         <v>32</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -4743,10 +5986,10 @@
         <v>32</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -4769,10 +6012,10 @@
         <v>32</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -4795,10 +6038,10 @@
         <v>32</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -4821,10 +6064,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -4847,10 +6090,10 @@
         <v>32</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -4873,10 +6116,10 @@
         <v>32</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -4899,10 +6142,10 @@
         <v>32</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -4925,10 +6168,10 @@
         <v>32</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -4951,10 +6194,10 @@
         <v>32</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -4977,10 +6220,10 @@
         <v>32</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -5025,10 +6268,10 @@
         <v>32</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -5051,10 +6294,10 @@
         <v>32</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -5077,10 +6320,10 @@
         <v>32</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -5103,10 +6346,10 @@
         <v>32</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -5129,10 +6372,10 @@
         <v>32</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -5177,10 +6420,10 @@
         <v>32</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -5203,10 +6446,10 @@
         <v>32</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -5229,10 +6472,10 @@
         <v>32</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -5255,10 +6498,10 @@
         <v>32</v>
       </c>
       <c r="I124" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J124" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
@@ -5281,10 +6524,10 @@
         <v>32</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -5307,10 +6550,10 @@
         <v>32</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -5333,10 +6576,10 @@
         <v>32</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
@@ -5359,10 +6602,10 @@
         <v>32</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J128" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
@@ -5379,7 +6622,7 @@
         <v>83</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H129" s="10">
         <v>32</v>
@@ -5407,10 +6650,10 @@
         <v>32</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
@@ -5433,10 +6676,10 @@
         <v>32</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
@@ -5459,10 +6702,10 @@
         <v>32</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
@@ -5485,10 +6728,10 @@
         <v>32</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -5511,10 +6754,10 @@
         <v>32</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
@@ -5537,10 +6780,10 @@
         <v>32</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
@@ -5563,10 +6806,10 @@
         <v>32</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
@@ -5589,10 +6832,10 @@
         <v>32</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
@@ -5615,10 +6858,10 @@
         <v>32</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
@@ -5641,10 +6884,10 @@
         <v>32</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
@@ -5667,10 +6910,10 @@
         <v>32</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -5678,11 +6921,14 @@
         <f>B140+1</f>
         <v>137</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>43</v>
+      <c r="D141" s="10">
+        <v>32</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
@@ -5690,11 +6936,14 @@
         <f t="shared" ref="B142:B174" si="2">B141+1</f>
         <v>138</v>
       </c>
-      <c r="C142" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>40</v>
+      <c r="D142" s="10">
+        <v>32</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
@@ -5702,11 +6951,14 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="C143" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>41</v>
+      <c r="D143" s="10">
+        <v>32</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
@@ -5714,417 +6966,990 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="C144" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="10">
+        <v>32</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="10">
+        <v>32</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="C146" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="10">
+        <v>32</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="C147" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="10">
+        <v>32</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="C148" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="10">
+        <v>32</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C149" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="10">
+        <v>32</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="C150" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="10">
+        <v>32</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="C151" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="10">
+        <v>32</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="C152" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="10">
+        <v>32</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="C153" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="33">
+      <c r="D153" s="10">
+        <v>32</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="30">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="C154" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="33">
+      <c r="D154" s="6">
+        <v>90</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="30">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="C155" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="33">
+      <c r="D155" s="6">
+        <v>90</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="30">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="C156" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="33">
+      <c r="D156" s="6">
+        <v>90</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="30">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="C157" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="33">
+      <c r="D157" s="6">
+        <v>90</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="30">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="C158" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="33">
+      <c r="D158" s="6">
+        <v>90</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="30">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="C159" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="33">
+      <c r="D159" s="6">
+        <v>90</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="30">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="C160" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="33">
+      <c r="D160" s="6">
+        <v>90</v>
+      </c>
+      <c r="E160" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="30">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="C161" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="6">
+        <v>90</v>
+      </c>
+      <c r="E161" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="9">
         <f>B161+1</f>
         <v>158</v>
       </c>
-      <c r="C162" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="9">
+        <v>45</v>
+      </c>
+      <c r="E162" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="9">
         <f t="shared" ref="B163:B168" si="3">B162+1</f>
         <v>159</v>
       </c>
-      <c r="C163" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="9">
+        <v>45</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="9">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="C164" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="9">
+        <v>45</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="9">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="9">
+        <v>45</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="9">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="C166" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="9">
+        <v>45</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="9">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="C167" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="9">
+        <v>45</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="9">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="C168" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="34">
+      <c r="D168" s="9">
+        <v>45</v>
+      </c>
+      <c r="E168" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="31">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="C169" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="34">
+      <c r="D169" s="43">
+        <v>16</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="31">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="C170" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="43">
+        <v>16</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="4">
         <v>167</v>
       </c>
-      <c r="C171" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D171" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="4">
+        <v>128</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="4">
         <v>168</v>
       </c>
-      <c r="C172" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="4">
+        <v>128</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="4">
         <v>169</v>
       </c>
-      <c r="C173" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="4">
+        <v>128</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="8">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="C174" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="11"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="11"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="11"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="11"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="11"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="11"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="11"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="11"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="11"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="11"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="11"/>
+      <c r="D174" s="8">
+        <v>64</v>
+      </c>
+      <c r="E174" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="11">
+        <v>1001</v>
+      </c>
+      <c r="D175" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="11">
+        <v>1002</v>
+      </c>
+      <c r="D176" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="11">
+        <v>1003</v>
+      </c>
+      <c r="D177" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="11">
+        <v>1004</v>
+      </c>
+      <c r="D178" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="11">
+        <v>1005</v>
+      </c>
+      <c r="D179" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="11">
+        <v>1006</v>
+      </c>
+      <c r="D180" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="11">
+        <v>1007</v>
+      </c>
+      <c r="D181" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="11">
+        <v>1008</v>
+      </c>
+      <c r="D182" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="11">
+        <v>1009</v>
+      </c>
+      <c r="D183" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="11">
+        <v>1010</v>
+      </c>
+      <c r="D184" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="11">
+        <v>1011</v>
+      </c>
+      <c r="D185" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="11">
+        <v>1012</v>
+      </c>
+      <c r="D186" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="11">
+        <v>1013</v>
+      </c>
+      <c r="D187" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="11">
+        <v>1014</v>
+      </c>
+      <c r="D188" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="11">
+        <v>1015</v>
+      </c>
+      <c r="D189" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="11">
+        <v>1016</v>
+      </c>
+      <c r="D190" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="11">
+        <v>1017</v>
+      </c>
+      <c r="D191" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="11">
+        <v>1018</v>
+      </c>
+      <c r="D192" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="11">
+        <v>1019</v>
+      </c>
+      <c r="D193" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="11">
+        <v>1020</v>
+      </c>
+      <c r="D194" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="11">
+        <v>1021</v>
+      </c>
+      <c r="D195" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="11">
+        <v>1022</v>
+      </c>
+      <c r="D196" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="11">
+        <v>1023</v>
+      </c>
+      <c r="D197" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="11">
+        <v>1024</v>
+      </c>
+      <c r="D198" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="11">
+        <v>1025</v>
+      </c>
+      <c r="D199" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="11">
+        <v>1026</v>
+      </c>
+      <c r="D200" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="11">
+        <v>1027</v>
+      </c>
+      <c r="D201" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="11">
+        <v>1028</v>
+      </c>
+      <c r="D202" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="11">
+        <v>1029</v>
+      </c>
+      <c r="D203" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="11">
+        <v>1030</v>
+      </c>
+      <c r="D204" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="11">
+        <v>1031</v>
+      </c>
+      <c r="D205" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="11">
+        <v>1032</v>
+      </c>
+      <c r="D206" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="11">
+        <v>1033</v>
+      </c>
+      <c r="D207" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="11">
+        <v>1034</v>
+      </c>
+      <c r="D208" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="11">
+        <v>1035</v>
+      </c>
+      <c r="D209" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="11">
+        <v>1036</v>
+      </c>
+      <c r="D210" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="11">
+        <v>1037</v>
+      </c>
+      <c r="D211" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="11">
+        <v>1038</v>
+      </c>
+      <c r="D212" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="11">
+        <v>1039</v>
+      </c>
+      <c r="D213" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="11">
+        <v>1040</v>
+      </c>
+      <c r="D214" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="11">
+        <v>1041</v>
+      </c>
+      <c r="D215" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="11">
+        <v>1042</v>
+      </c>
+      <c r="D216" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="11">
+        <v>1043</v>
+      </c>
+      <c r="D217" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="11">
+        <v>1044</v>
+      </c>
+      <c r="D218" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="11">
+        <v>1045</v>
+      </c>
+      <c r="D219" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="11">
+        <v>1046</v>
+      </c>
+      <c r="D220" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="11">
+        <v>1047</v>
+      </c>
+      <c r="D221" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="11">
+        <v>1048</v>
+      </c>
+      <c r="D222" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="11">
+        <v>1049</v>
+      </c>
+      <c r="D223" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="11">
+        <v>1050</v>
+      </c>
+      <c r="D224" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="11">
+        <v>1051</v>
+      </c>
+      <c r="D225" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="11">
+        <v>1052</v>
+      </c>
+      <c r="D226" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="11">
+        <v>1053</v>
+      </c>
+      <c r="D227" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="11">
+        <v>1054</v>
+      </c>
+      <c r="D228" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="11">
+        <v>1055</v>
+      </c>
+      <c r="D229" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="11">
+        <v>1056</v>
+      </c>
+      <c r="D230" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="11">
+        <v>1057</v>
+      </c>
+      <c r="D231" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="11">
+        <v>1058</v>
+      </c>
+      <c r="D232" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="11">
+        <v>1059</v>
+      </c>
+      <c r="D233" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="11">
+        <v>1060</v>
+      </c>
+      <c r="D234" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="11">
+        <v>1061</v>
+      </c>
+      <c r="D235" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="11">
+        <v>1062</v>
+      </c>
+      <c r="D236" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="11">
+        <v>1063</v>
+      </c>
+      <c r="D237" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="11">
+        <v>1064</v>
+      </c>
+      <c r="D238" s="23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="11">
+        <v>1065</v>
+      </c>
+      <c r="D239" s="26">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="11">
+        <v>1066</v>
+      </c>
+      <c r="D240" s="23">
+        <v>22.6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6146,926 +7971,2112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD487D-AE9A-4491-B8CD-B0DBE3647264}">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DDA353-7660-4CD7-8317-1897C5DB3F0B}">
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>90</v>
+      </c>
+      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>90</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>90</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>90</v>
+      </c>
+      <c r="B16" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>90</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>90</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>64</v>
+      </c>
+      <c r="B28" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>64</v>
+      </c>
+      <c r="B31" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>64</v>
+      </c>
+      <c r="B32" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>64</v>
+      </c>
+      <c r="B33" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>64</v>
+      </c>
+      <c r="B35" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>64</v>
+      </c>
+      <c r="B36" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>64</v>
+      </c>
+      <c r="B37" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>64</v>
+      </c>
+      <c r="B39" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>64</v>
+      </c>
+      <c r="B40" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>64</v>
+      </c>
+      <c r="B41" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>64</v>
+      </c>
+      <c r="B42" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>64</v>
+      </c>
+      <c r="B43" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>64</v>
+      </c>
+      <c r="B44" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>64</v>
+      </c>
+      <c r="B45" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>64</v>
+      </c>
+      <c r="B46" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>64</v>
+      </c>
+      <c r="B47" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>64</v>
+      </c>
+      <c r="B48" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>64</v>
+      </c>
+      <c r="B49" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>64</v>
+      </c>
+      <c r="B50" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>64</v>
+      </c>
+      <c r="B51" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>64</v>
+      </c>
+      <c r="B52" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>45</v>
+      </c>
+      <c r="B53" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>45</v>
+      </c>
+      <c r="B54" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>45</v>
+      </c>
+      <c r="B55" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>45</v>
+      </c>
+      <c r="B56" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>45</v>
+      </c>
+      <c r="B57" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>45</v>
+      </c>
+      <c r="B58" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>45</v>
+      </c>
+      <c r="B59" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>45</v>
+      </c>
+      <c r="B60" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>45</v>
+      </c>
+      <c r="B61" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>45</v>
+      </c>
+      <c r="B62" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>45</v>
+      </c>
+      <c r="B63" s="9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>45</v>
+      </c>
+      <c r="B64" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>45</v>
+      </c>
+      <c r="B65" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>45</v>
+      </c>
+      <c r="B66" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>45</v>
+      </c>
+      <c r="B67" s="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>45</v>
+      </c>
+      <c r="B68" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>45</v>
+      </c>
+      <c r="B69" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>45</v>
+      </c>
+      <c r="B70" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>45</v>
+      </c>
+      <c r="B71" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>45</v>
+      </c>
+      <c r="B72" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>45</v>
+      </c>
+      <c r="B73" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>45</v>
+      </c>
+      <c r="B74" s="9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>45</v>
+      </c>
+      <c r="B75" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>45</v>
+      </c>
+      <c r="B76" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>45</v>
+      </c>
+      <c r="B77" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>45</v>
+      </c>
+      <c r="B78" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>45</v>
+      </c>
+      <c r="B79" s="9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>45</v>
+      </c>
+      <c r="B80" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>45</v>
+      </c>
+      <c r="B81" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>45</v>
+      </c>
+      <c r="B82" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>45</v>
+      </c>
+      <c r="B83" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>45</v>
+      </c>
+      <c r="B84" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>45</v>
+      </c>
+      <c r="B85" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>45</v>
+      </c>
+      <c r="B86" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>45</v>
+      </c>
+      <c r="B87" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>45</v>
+      </c>
+      <c r="B88" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>45</v>
+      </c>
+      <c r="B89" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>45</v>
+      </c>
+      <c r="B90" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>45</v>
+      </c>
+      <c r="B91" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>45</v>
+      </c>
+      <c r="B92" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>45</v>
+      </c>
+      <c r="B93" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>45</v>
+      </c>
+      <c r="B94" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>45</v>
+      </c>
+      <c r="B95" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>32</v>
+      </c>
+      <c r="B96" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>32</v>
+      </c>
+      <c r="B97" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>32</v>
+      </c>
+      <c r="B98" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>32</v>
+      </c>
+      <c r="B99" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>32</v>
+      </c>
+      <c r="B100" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>32</v>
+      </c>
+      <c r="B101" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>32</v>
+      </c>
+      <c r="B102" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>32</v>
+      </c>
+      <c r="B103" s="10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>32</v>
+      </c>
+      <c r="B104" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>32</v>
+      </c>
+      <c r="B105" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>32</v>
+      </c>
+      <c r="B106" s="10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>32</v>
+      </c>
+      <c r="B107" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>32</v>
+      </c>
+      <c r="B108" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>32</v>
+      </c>
+      <c r="B109" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>32</v>
+      </c>
+      <c r="B110" s="10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>32</v>
+      </c>
+      <c r="B111" s="10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>32</v>
+      </c>
+      <c r="B112" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>32</v>
+      </c>
+      <c r="B113" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>32</v>
+      </c>
+      <c r="B114" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>32</v>
+      </c>
+      <c r="B115" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>32</v>
+      </c>
+      <c r="B116" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>32</v>
+      </c>
+      <c r="B117" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>32</v>
+      </c>
+      <c r="B118" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>32</v>
+      </c>
+      <c r="B119" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>32</v>
+      </c>
+      <c r="B120" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>32</v>
+      </c>
+      <c r="B121" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>32</v>
+      </c>
+      <c r="B122" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>32</v>
+      </c>
+      <c r="B123" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>32</v>
+      </c>
+      <c r="B124" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>32</v>
+      </c>
+      <c r="B125" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>32</v>
+      </c>
+      <c r="B126" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>32</v>
+      </c>
+      <c r="B127" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>32</v>
+      </c>
+      <c r="B128" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>32</v>
+      </c>
+      <c r="B129" s="10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>32</v>
+      </c>
+      <c r="B130" s="10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>32</v>
+      </c>
+      <c r="B131" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>32</v>
+      </c>
+      <c r="B132" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>32</v>
+      </c>
+      <c r="B133" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>32</v>
+      </c>
+      <c r="B134" s="10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>32</v>
+      </c>
+      <c r="B135" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>32</v>
+      </c>
+      <c r="B136" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>32</v>
+      </c>
+      <c r="B137" s="10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>32</v>
+      </c>
+      <c r="B138" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B139" s="25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B140" s="25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B141" s="25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B142" s="25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B143" s="25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B144" s="25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B145" s="25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B146" s="25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B147" s="25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B148" s="25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B149" s="25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B150" s="25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B151" s="25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B152" s="25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B153" s="25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B154" s="25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B155" s="25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B156" s="25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B157" s="25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B158" s="25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B159" s="25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B160" s="25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B161" s="25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B162" s="25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B163" s="25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B164" s="25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B165" s="25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="44">
+        <v>22.6</v>
+      </c>
+      <c r="B166" s="25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="45">
+        <v>16</v>
+      </c>
+      <c r="B167" s="46">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="45">
+        <v>16</v>
+      </c>
+      <c r="B168" s="46">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="45">
+        <v>16</v>
+      </c>
+      <c r="B169" s="46">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="45">
+        <v>16</v>
+      </c>
+      <c r="B170" s="46">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="45">
+        <v>16</v>
+      </c>
+      <c r="B171" s="46">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="45">
+        <v>16</v>
+      </c>
+      <c r="B172" s="46">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="45">
+        <v>16</v>
+      </c>
+      <c r="B173" s="46">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="45">
+        <v>16</v>
+      </c>
+      <c r="B174" s="46">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="45">
+        <v>16</v>
+      </c>
+      <c r="B175" s="46">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="45">
+        <v>16</v>
+      </c>
+      <c r="B176" s="46">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="45">
+        <v>16</v>
+      </c>
+      <c r="B177" s="46">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="45">
+        <v>16</v>
+      </c>
+      <c r="B178" s="46">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="45">
+        <v>16</v>
+      </c>
+      <c r="B179" s="46">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="45">
+        <v>16</v>
+      </c>
+      <c r="B180" s="46">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="45">
+        <v>16</v>
+      </c>
+      <c r="B181" s="46">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="45">
+        <v>16</v>
+      </c>
+      <c r="B182" s="46">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="45">
+        <v>16</v>
+      </c>
+      <c r="B183" s="46">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="45">
+        <v>16</v>
+      </c>
+      <c r="B184" s="46">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="45">
+        <v>16</v>
+      </c>
+      <c r="B185" s="46">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="45">
+        <v>16</v>
+      </c>
+      <c r="B186" s="46">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="45">
+        <v>16</v>
+      </c>
+      <c r="B187" s="46">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="45">
+        <v>16</v>
+      </c>
+      <c r="B188" s="46">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="45">
+        <v>16</v>
+      </c>
+      <c r="B189" s="46">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="45">
+        <v>16</v>
+      </c>
+      <c r="B190" s="46">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="45">
+        <v>16</v>
+      </c>
+      <c r="B191" s="46">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="45">
+        <v>16</v>
+      </c>
+      <c r="B192" s="46">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="45">
+        <v>16</v>
+      </c>
+      <c r="B193" s="46">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="45">
+        <v>16</v>
+      </c>
+      <c r="B194" s="46">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="45">
+        <v>16</v>
+      </c>
+      <c r="B195" s="46">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="45">
+        <v>16</v>
+      </c>
+      <c r="B196" s="46">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="45">
+        <v>16</v>
+      </c>
+      <c r="B197" s="46">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="45">
+        <v>16</v>
+      </c>
+      <c r="B198" s="46">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="45">
+        <v>16</v>
+      </c>
+      <c r="B199" s="46">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="45">
+        <v>16</v>
+      </c>
+      <c r="B200" s="46">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="45">
+        <v>16</v>
+      </c>
+      <c r="B201" s="46">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="47">
+        <v>11</v>
+      </c>
+      <c r="B202" s="48">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="47">
+        <v>11</v>
+      </c>
+      <c r="B203" s="48">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="47">
+        <v>11</v>
+      </c>
+      <c r="B204" s="48">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB005D-B354-4E22-ADBC-5647CCDA417C}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="51">
+        <v>10</v>
+      </c>
+      <c r="C3" s="52">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="E1" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="E2" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="D3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="63">
+        <f>D11</f>
+        <v>31.753554502369667</v>
+      </c>
+      <c r="G3" s="32">
+        <v>45</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="64">
+        <f>F3</f>
+        <v>31.753554502369667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>4</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="63">
+        <v>52.132701421800952</v>
+      </c>
+      <c r="G4" s="32">
+        <v>64</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="65">
+        <f>G3</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>5.6</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="66">
+        <v>50</v>
+      </c>
+      <c r="G5" s="67">
+        <f>J8</f>
+        <v>62.011627906976742</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="64">
+        <f>F4</f>
+        <v>52.132701421800952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51">
         <v>8</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="O2" s="54" t="s">
+      <c r="B6" s="51">
+        <v>0</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="65">
+        <f>G4</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51">
+        <v>11</v>
+      </c>
+      <c r="B7" s="51">
+        <v>5</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="70">
+        <f>G5</f>
+        <v>62.011627906976742</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51">
+        <v>16</v>
+      </c>
+      <c r="B8" s="51">
+        <v>10</v>
+      </c>
+      <c r="C8" s="51">
+        <v>5</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2.3696682464454977</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="77">
+        <f>J4+(J7-J3)*(J6-J4)/(J5-J3)</f>
+        <v>62.011627906976742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51">
+        <v>22.6</v>
+      </c>
+      <c r="B9" s="51">
+        <v>25</v>
+      </c>
+      <c r="C9" s="51">
+        <v>15</v>
+      </c>
+      <c r="D9" s="54">
+        <v>7.109004739336493</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51">
+        <v>32</v>
+      </c>
+      <c r="B10" s="51">
+        <v>27</v>
+      </c>
+      <c r="C10" s="51">
+        <v>40</v>
+      </c>
+      <c r="D10" s="54">
+        <v>18.957345971563981</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>45</v>
+      </c>
+      <c r="B11" s="51">
+        <v>43</v>
+      </c>
+      <c r="C11" s="51">
+        <v>67</v>
+      </c>
+      <c r="D11" s="54">
+        <v>31.753554502369667</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>64</v>
+      </c>
+      <c r="B12" s="51">
+        <v>43</v>
+      </c>
+      <c r="C12" s="51">
+        <v>110</v>
+      </c>
+      <c r="D12" s="54">
+        <v>52.132701421800952</v>
+      </c>
+      <c r="F12" s="63">
+        <f>D13</f>
+        <v>72.511848341232238</v>
+      </c>
+      <c r="G12" s="32">
+        <f>A13</f>
+        <v>90</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="J12" s="64">
+        <f>F12</f>
+        <v>72.511848341232238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>90</v>
+      </c>
+      <c r="B13" s="51">
+        <v>35</v>
+      </c>
+      <c r="C13" s="51">
+        <v>153</v>
+      </c>
+      <c r="D13" s="54">
+        <v>72.511848341232238</v>
+      </c>
+      <c r="F13" s="63">
+        <f>D14</f>
+        <v>89.099526066350705</v>
+      </c>
+      <c r="G13" s="32">
+        <f>A14</f>
+        <v>128</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="57"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="E3" s="1" t="s">
+      <c r="J13" s="65">
+        <f>G12</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>128</v>
+      </c>
+      <c r="B14" s="51">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8098</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="C14" s="51">
+        <v>188</v>
+      </c>
+      <c r="D14" s="54">
+        <v>89.099526066350705</v>
+      </c>
+      <c r="F14" s="66">
+        <v>84</v>
+      </c>
+      <c r="G14" s="67">
+        <f>J17</f>
+        <v>116.31771428571429</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="64">
+        <f>F13</f>
+        <v>89.099526066350705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>180</v>
+      </c>
+      <c r="B15" s="51">
+        <v>13</v>
+      </c>
+      <c r="C15" s="51">
+        <v>198</v>
+      </c>
+      <c r="D15" s="54">
+        <v>93.838862559241704</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="65">
+        <f>G13</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51">
+        <v>256</v>
+      </c>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="C16" s="51">
+        <v>211</v>
+      </c>
+      <c r="D16" s="54">
+        <v>100</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="70">
+        <f>G14</f>
+        <v>116.31771428571429</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6">
-        <v>8024</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4">
-        <v>8068</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8005</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>7</v>
-      </c>
-      <c r="R4" s="4">
-        <v>8064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E5" s="7">
-        <v>113</v>
-      </c>
-      <c r="F5" s="6">
-        <v>8027</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6">
-        <v>114</v>
-      </c>
-      <c r="I5" s="6">
-        <v>8115</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>8007</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="6">
-        <v>41</v>
-      </c>
-      <c r="P5" s="6">
-        <v>8053</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>44</v>
-      </c>
-      <c r="R5" s="6">
-        <v>8095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="E6" s="6">
+      <c r="B17" s="51">
+        <v>211</v>
+      </c>
+      <c r="C17" s="51">
+        <v>211</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="6">
-        <v>8070</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="8">
-        <v>90</v>
-      </c>
-      <c r="I6" s="8">
-        <v>8151</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="6">
-        <v>43</v>
-      </c>
-      <c r="L6" s="6">
-        <v>8019</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8">
-        <v>17</v>
-      </c>
-      <c r="P6" s="8">
-        <v>8097</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>13</v>
-      </c>
-      <c r="R6" s="8">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="35">
-        <v>44638</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>8124</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="8">
-        <v>19</v>
-      </c>
-      <c r="I7" s="8">
-        <v>8130</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="8">
-        <v>15</v>
-      </c>
-      <c r="L7" s="8">
-        <v>8063</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="8">
-        <v>29</v>
-      </c>
-      <c r="P7" s="8">
-        <v>8037</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>16</v>
-      </c>
-      <c r="R7" s="8">
-        <v>8018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="35">
-        <v>44638</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="E8" s="8">
-        <v>105</v>
-      </c>
-      <c r="F8" s="8">
-        <v>8197</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="8">
-        <v>106</v>
-      </c>
-      <c r="I8" s="8">
-        <v>8167</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="8">
-        <v>94</v>
-      </c>
-      <c r="L8" s="8">
-        <v>8105</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="8">
-        <v>14</v>
-      </c>
-      <c r="P8" s="8">
-        <v>8113</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>112</v>
-      </c>
-      <c r="R8" s="8">
-        <v>8044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="8">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8">
-        <v>8009</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9">
-        <v>49</v>
-      </c>
-      <c r="I9" s="9">
-        <v>8119</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="8">
-        <v>95</v>
-      </c>
-      <c r="L9" s="8">
-        <v>8168</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="9">
-        <v>119</v>
-      </c>
-      <c r="P9" s="9">
-        <v>8003</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>32</v>
-      </c>
-      <c r="R9" s="9">
-        <v>8073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>8146</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9">
-        <v>128</v>
-      </c>
-      <c r="I10" s="9">
-        <v>8100</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="9">
-        <v>109</v>
-      </c>
-      <c r="L10" s="9">
-        <v>8094</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="9">
-        <v>45</v>
-      </c>
-      <c r="P10" s="9">
-        <v>8174</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>59</v>
-      </c>
-      <c r="R10" s="9">
-        <v>8196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="8">
-        <v>99</v>
-      </c>
-      <c r="F11" s="8">
-        <v>8183</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="9">
-        <v>47</v>
-      </c>
-      <c r="I11" s="9">
-        <v>8153</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="9">
-        <v>66</v>
-      </c>
-      <c r="L11" s="9">
-        <v>8083</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="9">
-        <v>20</v>
-      </c>
-      <c r="P11" s="9">
-        <v>8040</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>57</v>
-      </c>
-      <c r="R11" s="9">
-        <v>8069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="9">
-        <v>33</v>
-      </c>
-      <c r="F12" s="9">
-        <v>8171</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="9">
-        <v>39</v>
-      </c>
-      <c r="I12" s="9">
-        <v>8156</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="10">
-        <v>73</v>
-      </c>
-      <c r="L12" s="10">
-        <v>8125</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="9">
-        <v>34</v>
-      </c>
-      <c r="P12" s="9">
-        <v>8049</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>104</v>
-      </c>
-      <c r="R12" s="9">
-        <v>8107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="9">
-        <v>117</v>
-      </c>
-      <c r="F13" s="9">
-        <v>8114</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9">
-        <v>120</v>
-      </c>
-      <c r="I13" s="9">
-        <v>8110</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="10">
-        <v>129</v>
-      </c>
-      <c r="L13" s="10">
-        <v>8155</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="10">
-        <v>64</v>
-      </c>
-      <c r="P13" s="10">
-        <v>8148</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>127</v>
-      </c>
-      <c r="R13" s="10">
-        <v>8042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="9">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
-        <v>8181</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9">
-        <v>60</v>
-      </c>
-      <c r="I14" s="9">
-        <v>8033</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="10">
-        <v>70</v>
-      </c>
-      <c r="L14" s="10">
-        <v>290</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="10">
-        <v>56</v>
-      </c>
-      <c r="P14" s="10">
-        <v>8017</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>134</v>
-      </c>
-      <c r="R14" s="10">
-        <v>8008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="9">
-        <v>54</v>
-      </c>
-      <c r="F15" s="9">
-        <v>8092</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="10">
-        <v>130</v>
-      </c>
-      <c r="I15" s="10">
-        <v>8077</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="10">
-        <v>58</v>
-      </c>
-      <c r="L15" s="10">
-        <v>8142</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="10">
-        <v>78</v>
-      </c>
-      <c r="P15" s="10">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>79</v>
-      </c>
-      <c r="R15" s="10">
-        <v>8134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="9">
-        <v>55</v>
-      </c>
-      <c r="F16" s="9">
-        <v>8075</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="10">
-        <v>123</v>
-      </c>
-      <c r="I16" s="10">
-        <v>8035</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="10">
-        <v>136</v>
-      </c>
-      <c r="L16" s="10">
-        <v>8084</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="25">
-        <v>2</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>17</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E17" s="10">
-        <v>71</v>
-      </c>
-      <c r="F17" s="10">
-        <v>8047</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="10">
-        <v>124</v>
-      </c>
-      <c r="I17" s="10">
-        <v>8141</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="10">
-        <v>39</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="25">
-        <v>14</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>36</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="10">
-        <v>51</v>
-      </c>
-      <c r="F18" s="10">
-        <v>284</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="10">
-        <v>81</v>
-      </c>
-      <c r="I18" s="10">
-        <v>295</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="10">
-        <v>5</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="25">
-        <v>43</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>44</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="10">
-        <v>80</v>
-      </c>
-      <c r="F19" s="10">
-        <v>214</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="29">
-        <v>6</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="10">
-        <v>31</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="25">
-        <v>58</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>65</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="10">
-        <v>63</v>
-      </c>
-      <c r="F20" s="10">
-        <v>8138</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="29">
-        <v>11</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="10">
-        <v>10</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E21" s="10">
-        <v>87</v>
-      </c>
-      <c r="F21" s="10">
-        <v>8166</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="29">
-        <v>48</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="29">
-        <v>50</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="29">
-        <v>62</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="29">
-        <v>26</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="29">
-        <v>55</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="29">
-        <v>37</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>39</v>
+      <c r="J17" s="77">
+        <f>J13+(J16-J12)*(J15-J13)/(J14-J12)</f>
+        <v>116.31771428571429</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/particleID_summary.xlsx
+++ b/particleID_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F95DD-524F-4440-A1E1-DB91C935701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50980CC-BF8B-4FE7-8471-BBA9549B174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
   </bookViews>
   <sheets>
     <sheet name="RFID rock sizes" sheetId="2" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,6 +373,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,34 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,37 +819,19 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -883,12 +841,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,10 +872,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,10 +885,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2286,30 +2292,30 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="F2" s="37" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
       <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -2333,7 +2339,7 @@
       <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="68" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="4">
@@ -2352,7 +2358,7 @@
       <c r="R3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="68" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2378,7 +2384,7 @@
       <c r="I4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="69"/>
       <c r="L4" s="6">
         <v>90</v>
       </c>
@@ -2395,7 +2401,7 @@
       <c r="R4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="41"/>
+      <c r="S4" s="69"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
@@ -2473,10 +2479,10 @@
         <f>P6+1000</f>
         <v>1002</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>2</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>11</v>
       </c>
       <c r="R6" s="24" t="s">
@@ -2599,10 +2605,10 @@
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="25">
         <v>5</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
         <v>16</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -2637,19 +2643,19 @@
       <c r="J10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="L10" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="25">
         <v>6</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
         <v>16</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2687,10 +2693,10 @@
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="63">
         <v>44389</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="11">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -2732,10 +2738,10 @@
       <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="63">
         <v>44389</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="64"/>
       <c r="O12" s="11">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -2777,10 +2783,10 @@
       <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="63">
         <v>44389</v>
       </c>
-      <c r="N13" s="36"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="11">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -2823,10 +2829,10 @@
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>10</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <v>16</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -2861,20 +2867,20 @@
       <c r="J15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="11">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <f>P14+1</f>
         <v>11</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <v>16</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2912,10 +2918,10 @@
       <c r="L16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="63">
         <v>44638</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="11">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -2958,10 +2964,10 @@
       <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="63">
         <v>44638</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="11">
         <f t="shared" si="0"/>
         <v>1013</v>
@@ -3005,11 +3011,11 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <f>P17+1</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="25">
         <v>16</v>
       </c>
       <c r="R18" s="24" t="s">
@@ -3126,11 +3132,11 @@
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="25">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="25">
         <v>16</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -3477,11 +3483,11 @@
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="25">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="25">
         <v>16</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -3559,11 +3565,11 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="25">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="25">
         <v>16</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -3680,11 +3686,11 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="25">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="25">
         <v>16</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -3867,11 +3873,11 @@
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="25">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="25">
         <v>16</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -3910,11 +3916,11 @@
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="25">
         <f>P40+1</f>
         <v>37</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="25">
         <v>16</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -3988,11 +3994,11 @@
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="P43" s="26">
+      <c r="P43" s="25">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="25">
         <v>22.6</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -4031,11 +4037,11 @@
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="25">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="25">
         <v>22.6</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -4074,11 +4080,11 @@
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="25">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="25">
         <v>22.6</v>
       </c>
       <c r="R45" s="24" t="s">
@@ -4117,11 +4123,11 @@
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="25">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="25">
         <v>22.6</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -4160,11 +4166,11 @@
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="P47" s="26">
+      <c r="P47" s="25">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="25">
         <v>22.6</v>
       </c>
       <c r="R47" s="24" t="s">
@@ -4203,11 +4209,11 @@
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-      <c r="P48" s="26">
+      <c r="P48" s="25">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="25">
         <v>22.6</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -4246,11 +4252,11 @@
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="P49" s="26">
+      <c r="P49" s="25">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="25">
         <v>22.6</v>
       </c>
       <c r="R49" s="24" t="s">
@@ -4324,11 +4330,11 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="P51" s="26">
+      <c r="P51" s="25">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q51" s="25">
         <v>22.6</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -4367,11 +4373,11 @@
         <f t="shared" si="0"/>
         <v>1048</v>
       </c>
-      <c r="P52" s="26">
+      <c r="P52" s="25">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="25">
         <v>22.6</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -4410,11 +4416,11 @@
         <f t="shared" si="0"/>
         <v>1049</v>
       </c>
-      <c r="P53" s="26">
+      <c r="P53" s="25">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="Q53" s="25">
         <v>22.6</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -4449,11 +4455,11 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="25">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="25">
         <v>22.6</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -4492,11 +4498,11 @@
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="P55" s="26">
+      <c r="P55" s="25">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="25">
         <v>22.6</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -4535,11 +4541,11 @@
         <f t="shared" si="0"/>
         <v>1052</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P56" s="25">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="25">
         <v>22.6</v>
       </c>
       <c r="R56" s="1" t="s">
@@ -4578,11 +4584,11 @@
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="25">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="25">
         <v>22.6</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -4656,11 +4662,11 @@
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="25">
         <v>22.6</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -4735,11 +4741,11 @@
         <f t="shared" si="0"/>
         <v>1057</v>
       </c>
-      <c r="P61" s="26">
+      <c r="P61" s="25">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="Q61" s="26">
+      <c r="Q61" s="25">
         <v>22.6</v>
       </c>
       <c r="R61" s="24" t="s">
@@ -4774,11 +4780,11 @@
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
-      <c r="P62" s="26">
+      <c r="P62" s="25">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="Q62" s="25">
         <v>22.6</v>
       </c>
       <c r="R62" s="24" t="s">
@@ -4896,11 +4902,11 @@
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
-      <c r="P65" s="26">
+      <c r="P65" s="25">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="Q65" s="26">
+      <c r="Q65" s="25">
         <v>22.6</v>
       </c>
       <c r="R65" s="2" t="s">
@@ -4942,11 +4948,11 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="P66" s="26">
+      <c r="P66" s="25">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="Q66" s="26">
+      <c r="Q66" s="25">
         <v>22.6</v>
       </c>
       <c r="R66" s="2" t="s">
@@ -4985,11 +4991,11 @@
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
-      <c r="P67" s="26">
+      <c r="P67" s="25">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="Q67" s="26">
+      <c r="Q67" s="25">
         <v>22.6</v>
       </c>
       <c r="R67" s="24" t="s">
@@ -5067,11 +5073,11 @@
         <f t="shared" si="0"/>
         <v>1065</v>
       </c>
-      <c r="P69" s="26">
+      <c r="P69" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q69" s="26">
+      <c r="Q69" s="25">
         <v>22.6</v>
       </c>
       <c r="R69" s="1" t="s">
@@ -6939,7 +6945,7 @@
       <c r="D142" s="10">
         <v>32</v>
       </c>
-      <c r="E142" s="27" t="s">
+      <c r="E142" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -6954,7 +6960,7 @@
       <c r="D143" s="10">
         <v>32</v>
       </c>
-      <c r="E143" s="28" t="s">
+      <c r="E143" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -6969,7 +6975,7 @@
       <c r="D144" s="10">
         <v>32</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E144" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F144" s="3" t="s">
@@ -6999,7 +7005,7 @@
       <c r="D146" s="10">
         <v>32</v>
       </c>
-      <c r="E146" s="28" t="s">
+      <c r="E146" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="2" t="s">
@@ -7014,7 +7020,7 @@
       <c r="D147" s="10">
         <v>32</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -7044,7 +7050,7 @@
       <c r="D149" s="10">
         <v>32</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F149" s="3" t="s">
@@ -7059,7 +7065,7 @@
       <c r="D150" s="10">
         <v>32</v>
       </c>
-      <c r="E150" s="28" t="s">
+      <c r="E150" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -7074,7 +7080,7 @@
       <c r="D151" s="10">
         <v>32</v>
       </c>
-      <c r="E151" s="29" t="s">
+      <c r="E151" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F151" s="3" t="s">
@@ -7104,7 +7110,7 @@
       <c r="D153" s="10">
         <v>32</v>
       </c>
-      <c r="E153" s="28" t="s">
+      <c r="E153" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
@@ -7112,14 +7118,14 @@
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="30">
+      <c r="B154" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="D154" s="6">
         <v>90</v>
       </c>
-      <c r="E154" s="27" t="s">
+      <c r="E154" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -7127,7 +7133,7 @@
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="30">
+      <c r="B155" s="29">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
@@ -7142,14 +7148,14 @@
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="30">
+      <c r="B156" s="29">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="D156" s="6">
         <v>90</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E156" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -7157,7 +7163,7 @@
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="30">
+      <c r="B157" s="29">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
@@ -7172,14 +7178,14 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="30">
+      <c r="B158" s="29">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="D158" s="6">
         <v>90</v>
       </c>
-      <c r="E158" s="28" t="s">
+      <c r="E158" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
@@ -7187,14 +7193,14 @@
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="30">
+      <c r="B159" s="29">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="D159" s="6">
         <v>90</v>
       </c>
-      <c r="E159" s="29" t="s">
+      <c r="E159" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F159" s="3" t="s">
@@ -7202,14 +7208,14 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="30">
+      <c r="B160" s="29">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="D160" s="6">
         <v>90</v>
       </c>
-      <c r="E160" s="27" t="s">
+      <c r="E160" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -7217,14 +7223,14 @@
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="30">
+      <c r="B161" s="29">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="D161" s="6">
         <v>90</v>
       </c>
-      <c r="E161" s="27" t="s">
+      <c r="E161" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -7239,7 +7245,7 @@
       <c r="D162" s="9">
         <v>45</v>
       </c>
-      <c r="E162" s="28" t="s">
+      <c r="E162" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
@@ -7269,7 +7275,7 @@
       <c r="D164" s="9">
         <v>45</v>
       </c>
-      <c r="E164" s="29" t="s">
+      <c r="E164" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F164" s="3" t="s">
@@ -7299,7 +7305,7 @@
       <c r="D166" s="9">
         <v>45</v>
       </c>
-      <c r="E166" s="29" t="s">
+      <c r="E166" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="3" t="s">
@@ -7329,7 +7335,7 @@
       <c r="D168" s="9">
         <v>45</v>
       </c>
-      <c r="E168" s="28" t="s">
+      <c r="E168" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F168" s="2" t="s">
@@ -7337,14 +7343,14 @@
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="31">
+      <c r="B169" s="30">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="D169" s="43">
-        <v>16</v>
-      </c>
-      <c r="E169" s="27" t="s">
+      <c r="D169" s="34">
+        <v>16</v>
+      </c>
+      <c r="E169" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -7352,14 +7358,14 @@
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="31">
+      <c r="B170" s="30">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="D170" s="43">
-        <v>16</v>
-      </c>
-      <c r="E170" s="27" t="s">
+      <c r="D170" s="34">
+        <v>16</v>
+      </c>
+      <c r="E170" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -7387,7 +7393,7 @@
       <c r="D172" s="4">
         <v>128</v>
       </c>
-      <c r="E172" s="29" t="s">
+      <c r="E172" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F172" s="3" t="s">
@@ -7401,7 +7407,7 @@
       <c r="D173" s="4">
         <v>128</v>
       </c>
-      <c r="E173" s="28" t="s">
+      <c r="E173" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F173" s="2" t="s">
@@ -7416,7 +7422,7 @@
       <c r="D174" s="8">
         <v>64</v>
       </c>
-      <c r="E174" s="29" t="s">
+      <c r="E174" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F174" s="3" t="s">
@@ -7435,7 +7441,7 @@
       <c r="B176" s="11">
         <v>1002</v>
       </c>
-      <c r="D176" s="26">
+      <c r="D176" s="25">
         <v>11</v>
       </c>
     </row>
@@ -7459,7 +7465,7 @@
       <c r="B179" s="11">
         <v>1005</v>
       </c>
-      <c r="D179" s="26">
+      <c r="D179" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7467,7 +7473,7 @@
       <c r="B180" s="11">
         <v>1006</v>
       </c>
-      <c r="D180" s="26">
+      <c r="D180" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7499,7 +7505,7 @@
       <c r="B184" s="11">
         <v>1010</v>
       </c>
-      <c r="D184" s="26">
+      <c r="D184" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7507,7 +7513,7 @@
       <c r="B185" s="11">
         <v>1011</v>
       </c>
-      <c r="D185" s="26">
+      <c r="D185" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7531,7 +7537,7 @@
       <c r="B188" s="11">
         <v>1014</v>
       </c>
-      <c r="D188" s="26">
+      <c r="D188" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7555,7 +7561,7 @@
       <c r="B191" s="11">
         <v>1017</v>
       </c>
-      <c r="D191" s="26">
+      <c r="D191" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7627,7 +7633,7 @@
       <c r="B200" s="11">
         <v>1026</v>
       </c>
-      <c r="D200" s="26">
+      <c r="D200" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7643,7 +7649,7 @@
       <c r="B202" s="11">
         <v>1028</v>
       </c>
-      <c r="D202" s="26">
+      <c r="D202" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7667,7 +7673,7 @@
       <c r="B205" s="11">
         <v>1031</v>
       </c>
-      <c r="D205" s="26">
+      <c r="D205" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7707,7 +7713,7 @@
       <c r="B210" s="11">
         <v>1036</v>
       </c>
-      <c r="D210" s="26">
+      <c r="D210" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7715,7 +7721,7 @@
       <c r="B211" s="11">
         <v>1037</v>
       </c>
-      <c r="D211" s="26">
+      <c r="D211" s="25">
         <v>16</v>
       </c>
     </row>
@@ -7731,7 +7737,7 @@
       <c r="B213" s="11">
         <v>1039</v>
       </c>
-      <c r="D213" s="26">
+      <c r="D213" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7739,7 +7745,7 @@
       <c r="B214" s="11">
         <v>1040</v>
       </c>
-      <c r="D214" s="26">
+      <c r="D214" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7747,7 +7753,7 @@
       <c r="B215" s="11">
         <v>1041</v>
       </c>
-      <c r="D215" s="26">
+      <c r="D215" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7755,7 +7761,7 @@
       <c r="B216" s="11">
         <v>1042</v>
       </c>
-      <c r="D216" s="26">
+      <c r="D216" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7763,7 +7769,7 @@
       <c r="B217" s="11">
         <v>1043</v>
       </c>
-      <c r="D217" s="26">
+      <c r="D217" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7771,7 +7777,7 @@
       <c r="B218" s="11">
         <v>1044</v>
       </c>
-      <c r="D218" s="26">
+      <c r="D218" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7779,7 +7785,7 @@
       <c r="B219" s="11">
         <v>1045</v>
       </c>
-      <c r="D219" s="26">
+      <c r="D219" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7795,7 +7801,7 @@
       <c r="B221" s="11">
         <v>1047</v>
       </c>
-      <c r="D221" s="26">
+      <c r="D221" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7803,7 +7809,7 @@
       <c r="B222" s="11">
         <v>1048</v>
       </c>
-      <c r="D222" s="26">
+      <c r="D222" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7811,7 +7817,7 @@
       <c r="B223" s="11">
         <v>1049</v>
       </c>
-      <c r="D223" s="26">
+      <c r="D223" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7819,7 +7825,7 @@
       <c r="B224" s="11">
         <v>1050</v>
       </c>
-      <c r="D224" s="26">
+      <c r="D224" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7827,7 +7833,7 @@
       <c r="B225" s="11">
         <v>1051</v>
       </c>
-      <c r="D225" s="26">
+      <c r="D225" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7835,7 +7841,7 @@
       <c r="B226" s="11">
         <v>1052</v>
       </c>
-      <c r="D226" s="26">
+      <c r="D226" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7843,7 +7849,7 @@
       <c r="B227" s="11">
         <v>1053</v>
       </c>
-      <c r="D227" s="26">
+      <c r="D227" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7859,7 +7865,7 @@
       <c r="B229" s="11">
         <v>1055</v>
       </c>
-      <c r="D229" s="26">
+      <c r="D229" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7875,7 +7881,7 @@
       <c r="B231" s="11">
         <v>1057</v>
       </c>
-      <c r="D231" s="26">
+      <c r="D231" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7883,7 +7889,7 @@
       <c r="B232" s="11">
         <v>1058</v>
       </c>
-      <c r="D232" s="26">
+      <c r="D232" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7907,7 +7913,7 @@
       <c r="B235" s="11">
         <v>1061</v>
       </c>
-      <c r="D235" s="26">
+      <c r="D235" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7915,7 +7921,7 @@
       <c r="B236" s="11">
         <v>1062</v>
       </c>
-      <c r="D236" s="26">
+      <c r="D236" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7923,7 +7929,7 @@
       <c r="B237" s="11">
         <v>1063</v>
       </c>
-      <c r="D237" s="26">
+      <c r="D237" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7939,7 +7945,7 @@
       <c r="B239" s="11">
         <v>1065</v>
       </c>
-      <c r="D239" s="26">
+      <c r="D239" s="25">
         <v>22.6</v>
       </c>
     </row>
@@ -7974,8 +7980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DDA353-7660-4CD7-8317-1897C5DB3F0B}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R179" sqref="R179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7988,7 +7994,7 @@
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7996,7 +8002,7 @@
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9089,530 +9095,530 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="44">
+      <c r="A139" s="79">
         <v>22.6</v>
       </c>
-      <c r="B139" s="25">
+      <c r="B139" s="80">
         <v>1039</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="44">
+      <c r="A140" s="79">
         <v>22.6</v>
       </c>
-      <c r="B140" s="25">
+      <c r="B140" s="80">
         <v>1040</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="44">
+      <c r="A141" s="79">
         <v>22.6</v>
       </c>
-      <c r="B141" s="25">
+      <c r="B141" s="80">
         <v>1041</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="44">
+      <c r="A142" s="79">
         <v>22.6</v>
       </c>
-      <c r="B142" s="25">
+      <c r="B142" s="80">
         <v>1042</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="44">
+      <c r="A143" s="79">
         <v>22.6</v>
       </c>
-      <c r="B143" s="25">
+      <c r="B143" s="80">
         <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="44">
+      <c r="A144" s="79">
         <v>22.6</v>
       </c>
-      <c r="B144" s="25">
+      <c r="B144" s="80">
         <v>1044</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="44">
+      <c r="A145" s="79">
         <v>22.6</v>
       </c>
-      <c r="B145" s="25">
+      <c r="B145" s="80">
         <v>1045</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="44">
+      <c r="A146" s="79">
         <v>22.6</v>
       </c>
-      <c r="B146" s="25">
+      <c r="B146" s="80">
         <v>1046</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="44">
+      <c r="A147" s="79">
         <v>22.6</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B147" s="80">
         <v>1047</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="44">
+      <c r="A148" s="79">
         <v>22.6</v>
       </c>
-      <c r="B148" s="25">
+      <c r="B148" s="80">
         <v>1048</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="44">
+      <c r="A149" s="79">
         <v>22.6</v>
       </c>
-      <c r="B149" s="25">
+      <c r="B149" s="80">
         <v>1049</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="44">
+      <c r="A150" s="79">
         <v>22.6</v>
       </c>
-      <c r="B150" s="25">
+      <c r="B150" s="80">
         <v>1050</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="44">
+      <c r="A151" s="79">
         <v>22.6</v>
       </c>
-      <c r="B151" s="25">
+      <c r="B151" s="80">
         <v>1051</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="44">
+      <c r="A152" s="79">
         <v>22.6</v>
       </c>
-      <c r="B152" s="25">
+      <c r="B152" s="80">
         <v>1052</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="44">
+      <c r="A153" s="79">
         <v>22.6</v>
       </c>
-      <c r="B153" s="25">
+      <c r="B153" s="80">
         <v>1053</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="44">
+      <c r="A154" s="79">
         <v>22.6</v>
       </c>
-      <c r="B154" s="25">
+      <c r="B154" s="80">
         <v>1054</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="44">
+      <c r="A155" s="79">
         <v>22.6</v>
       </c>
-      <c r="B155" s="25">
+      <c r="B155" s="80">
         <v>1055</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="44">
+      <c r="A156" s="79">
         <v>22.6</v>
       </c>
-      <c r="B156" s="25">
+      <c r="B156" s="80">
         <v>1056</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="44">
+      <c r="A157" s="79">
         <v>22.6</v>
       </c>
-      <c r="B157" s="25">
+      <c r="B157" s="80">
         <v>1057</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="44">
+      <c r="A158" s="79">
         <v>22.6</v>
       </c>
-      <c r="B158" s="25">
+      <c r="B158" s="80">
         <v>1058</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="44">
+      <c r="A159" s="79">
         <v>22.6</v>
       </c>
-      <c r="B159" s="25">
+      <c r="B159" s="80">
         <v>1059</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="44">
+      <c r="A160" s="79">
         <v>22.6</v>
       </c>
-      <c r="B160" s="25">
+      <c r="B160" s="80">
         <v>1060</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="44">
+      <c r="A161" s="79">
         <v>22.6</v>
       </c>
-      <c r="B161" s="25">
+      <c r="B161" s="80">
         <v>1061</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="44">
+      <c r="A162" s="79">
         <v>22.6</v>
       </c>
-      <c r="B162" s="25">
+      <c r="B162" s="80">
         <v>1062</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="44">
+      <c r="A163" s="79">
         <v>22.6</v>
       </c>
-      <c r="B163" s="25">
+      <c r="B163" s="80">
         <v>1063</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="44">
+      <c r="A164" s="79">
         <v>22.6</v>
       </c>
-      <c r="B164" s="25">
+      <c r="B164" s="80">
         <v>1064</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="44">
+      <c r="A165" s="79">
         <v>22.6</v>
       </c>
-      <c r="B165" s="25">
+      <c r="B165" s="80">
         <v>1065</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="44">
+      <c r="A166" s="79">
         <v>22.6</v>
       </c>
-      <c r="B166" s="25">
+      <c r="B166" s="80">
         <v>1066</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="45">
-        <v>16</v>
-      </c>
-      <c r="B167" s="46">
+      <c r="A167" s="81">
+        <v>16</v>
+      </c>
+      <c r="B167" s="82">
         <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="45">
-        <v>16</v>
-      </c>
-      <c r="B168" s="46">
+      <c r="A168" s="81">
+        <v>16</v>
+      </c>
+      <c r="B168" s="82">
         <v>1005</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="45">
-        <v>16</v>
-      </c>
-      <c r="B169" s="46">
+      <c r="A169" s="81">
+        <v>16</v>
+      </c>
+      <c r="B169" s="82">
         <v>1006</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="45">
-        <v>16</v>
-      </c>
-      <c r="B170" s="46">
+      <c r="A170" s="81">
+        <v>16</v>
+      </c>
+      <c r="B170" s="82">
         <v>1007</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="45">
-        <v>16</v>
-      </c>
-      <c r="B171" s="46">
+      <c r="A171" s="81">
+        <v>16</v>
+      </c>
+      <c r="B171" s="82">
         <v>1008</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="45">
-        <v>16</v>
-      </c>
-      <c r="B172" s="46">
+      <c r="A172" s="81">
+        <v>16</v>
+      </c>
+      <c r="B172" s="82">
         <v>1009</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="45">
-        <v>16</v>
-      </c>
-      <c r="B173" s="46">
+      <c r="A173" s="81">
+        <v>16</v>
+      </c>
+      <c r="B173" s="82">
         <v>1010</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="45">
-        <v>16</v>
-      </c>
-      <c r="B174" s="46">
+      <c r="A174" s="81">
+        <v>16</v>
+      </c>
+      <c r="B174" s="82">
         <v>1011</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="45">
-        <v>16</v>
-      </c>
-      <c r="B175" s="46">
+      <c r="A175" s="81">
+        <v>16</v>
+      </c>
+      <c r="B175" s="82">
         <v>1012</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="45">
-        <v>16</v>
-      </c>
-      <c r="B176" s="46">
+      <c r="A176" s="81">
+        <v>16</v>
+      </c>
+      <c r="B176" s="82">
         <v>1013</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="45">
-        <v>16</v>
-      </c>
-      <c r="B177" s="46">
+      <c r="A177" s="81">
+        <v>16</v>
+      </c>
+      <c r="B177" s="82">
         <v>1014</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="45">
-        <v>16</v>
-      </c>
-      <c r="B178" s="46">
+      <c r="A178" s="81">
+        <v>16</v>
+      </c>
+      <c r="B178" s="82">
         <v>1015</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="45">
-        <v>16</v>
-      </c>
-      <c r="B179" s="46">
+      <c r="A179" s="81">
+        <v>16</v>
+      </c>
+      <c r="B179" s="82">
         <v>1016</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="45">
-        <v>16</v>
-      </c>
-      <c r="B180" s="46">
+      <c r="A180" s="81">
+        <v>16</v>
+      </c>
+      <c r="B180" s="82">
         <v>1017</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="45">
-        <v>16</v>
-      </c>
-      <c r="B181" s="46">
+      <c r="A181" s="81">
+        <v>16</v>
+      </c>
+      <c r="B181" s="82">
         <v>1018</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="45">
-        <v>16</v>
-      </c>
-      <c r="B182" s="46">
+      <c r="A182" s="81">
+        <v>16</v>
+      </c>
+      <c r="B182" s="82">
         <v>1019</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="45">
-        <v>16</v>
-      </c>
-      <c r="B183" s="46">
+      <c r="A183" s="81">
+        <v>16</v>
+      </c>
+      <c r="B183" s="82">
         <v>1020</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="45">
-        <v>16</v>
-      </c>
-      <c r="B184" s="46">
+      <c r="A184" s="81">
+        <v>16</v>
+      </c>
+      <c r="B184" s="82">
         <v>1021</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="45">
-        <v>16</v>
-      </c>
-      <c r="B185" s="46">
+      <c r="A185" s="81">
+        <v>16</v>
+      </c>
+      <c r="B185" s="82">
         <v>1022</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="45">
-        <v>16</v>
-      </c>
-      <c r="B186" s="46">
+      <c r="A186" s="81">
+        <v>16</v>
+      </c>
+      <c r="B186" s="82">
         <v>1023</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="45">
-        <v>16</v>
-      </c>
-      <c r="B187" s="46">
+      <c r="A187" s="81">
+        <v>16</v>
+      </c>
+      <c r="B187" s="82">
         <v>1024</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="45">
-        <v>16</v>
-      </c>
-      <c r="B188" s="46">
+      <c r="A188" s="81">
+        <v>16</v>
+      </c>
+      <c r="B188" s="82">
         <v>1025</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="45">
-        <v>16</v>
-      </c>
-      <c r="B189" s="46">
+      <c r="A189" s="81">
+        <v>16</v>
+      </c>
+      <c r="B189" s="82">
         <v>1026</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="45">
-        <v>16</v>
-      </c>
-      <c r="B190" s="46">
+      <c r="A190" s="81">
+        <v>16</v>
+      </c>
+      <c r="B190" s="82">
         <v>1027</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="45">
-        <v>16</v>
-      </c>
-      <c r="B191" s="46">
+      <c r="A191" s="81">
+        <v>16</v>
+      </c>
+      <c r="B191" s="82">
         <v>1028</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="45">
-        <v>16</v>
-      </c>
-      <c r="B192" s="46">
+      <c r="A192" s="81">
+        <v>16</v>
+      </c>
+      <c r="B192" s="82">
         <v>1029</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="45">
-        <v>16</v>
-      </c>
-      <c r="B193" s="46">
+      <c r="A193" s="81">
+        <v>16</v>
+      </c>
+      <c r="B193" s="82">
         <v>1030</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="45">
-        <v>16</v>
-      </c>
-      <c r="B194" s="46">
+      <c r="A194" s="81">
+        <v>16</v>
+      </c>
+      <c r="B194" s="82">
         <v>1031</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="45">
-        <v>16</v>
-      </c>
-      <c r="B195" s="46">
+      <c r="A195" s="81">
+        <v>16</v>
+      </c>
+      <c r="B195" s="82">
         <v>1032</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="45">
-        <v>16</v>
-      </c>
-      <c r="B196" s="46">
+      <c r="A196" s="81">
+        <v>16</v>
+      </c>
+      <c r="B196" s="82">
         <v>1033</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="45">
-        <v>16</v>
-      </c>
-      <c r="B197" s="46">
+      <c r="A197" s="81">
+        <v>16</v>
+      </c>
+      <c r="B197" s="82">
         <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="45">
-        <v>16</v>
-      </c>
-      <c r="B198" s="46">
+      <c r="A198" s="81">
+        <v>16</v>
+      </c>
+      <c r="B198" s="82">
         <v>1035</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="45">
-        <v>16</v>
-      </c>
-      <c r="B199" s="46">
+      <c r="A199" s="81">
+        <v>16</v>
+      </c>
+      <c r="B199" s="82">
         <v>1036</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="45">
-        <v>16</v>
-      </c>
-      <c r="B200" s="46">
+      <c r="A200" s="81">
+        <v>16</v>
+      </c>
+      <c r="B200" s="82">
         <v>1037</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="45">
-        <v>16</v>
-      </c>
-      <c r="B201" s="46">
+      <c r="A201" s="81">
+        <v>16</v>
+      </c>
+      <c r="B201" s="82">
         <v>1038</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="47">
+      <c r="A202" s="35">
         <v>11</v>
       </c>
-      <c r="B202" s="48">
+      <c r="B202" s="36">
         <v>1001</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="47">
+      <c r="A203" s="35">
         <v>11</v>
       </c>
-      <c r="B203" s="48">
+      <c r="B203" s="36">
         <v>1002</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="47">
+      <c r="A204" s="35">
         <v>11</v>
       </c>
-      <c r="B204" s="48">
+      <c r="B204" s="36">
         <v>1003</v>
       </c>
     </row>
@@ -9625,7 +9631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB005D-B354-4E22-ADBC-5647CCDA417C}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -9638,432 +9644,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="F1" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="62"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="38">
         <v>10</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="39">
         <v>0</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="40">
         <v>0</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="45">
         <f>D11</f>
         <v>31.753554502369667</v>
       </c>
-      <c r="G3" s="32">
-        <v>45</v>
-      </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="32" t="s">
+      <c r="G3" s="31">
+        <v>45</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="46">
         <f>F3</f>
         <v>31.753554502369667</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="38">
         <v>4</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="38">
         <v>0</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="38">
         <v>0</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="41">
         <v>0</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="45">
         <v>52.132701421800952</v>
       </c>
-      <c r="G4" s="32">
-        <v>64</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="32" t="s">
+      <c r="G4" s="31">
+        <v>64</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="47">
         <f>G3</f>
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="38">
         <v>5.6</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="38">
         <v>0</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="38">
         <v>0</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="41">
         <v>0</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="48">
         <v>50</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="49">
         <f>J8</f>
         <v>62.011627906976742</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="46">
         <f>F4</f>
         <v>52.132701421800952</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+      <c r="A6" s="38">
         <v>8</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="38">
         <v>0</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="38">
         <v>0</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="41">
         <v>0</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="32" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="47">
         <f>G4</f>
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+      <c r="A7" s="38">
         <v>11</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="38">
         <v>5</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="38">
         <v>0</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="41">
         <v>0</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="52">
         <f>G5</f>
         <v>62.011627906976742</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
-        <v>16</v>
-      </c>
-      <c r="B8" s="51">
+      <c r="A8" s="38">
+        <v>16</v>
+      </c>
+      <c r="B8" s="38">
         <v>10</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="38">
         <v>5</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="41">
         <v>2.3696682464454977</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="59">
         <f>J4+(J7-J3)*(J6-J4)/(J5-J3)</f>
         <v>62.011627906976742</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+      <c r="A9" s="38">
         <v>22.6</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="38">
         <v>25</v>
       </c>
-      <c r="C9" s="51">
-        <v>15</v>
-      </c>
-      <c r="D9" s="54">
+      <c r="C9" s="38">
+        <v>15</v>
+      </c>
+      <c r="D9" s="41">
         <v>7.109004739336493</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
-        <v>32</v>
-      </c>
-      <c r="B10" s="51">
+      <c r="A10" s="38">
+        <v>32</v>
+      </c>
+      <c r="B10" s="38">
         <v>27</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="38">
         <v>40</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="41">
         <v>18.957345971563981</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>45</v>
-      </c>
-      <c r="B11" s="51">
+      <c r="A11" s="38">
+        <v>45</v>
+      </c>
+      <c r="B11" s="38">
         <v>43</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="38">
         <v>67</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="41">
         <v>31.753554502369667</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81" t="s">
+      <c r="H11" s="62"/>
+      <c r="I11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="82"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
-        <v>64</v>
-      </c>
-      <c r="B12" s="51">
+      <c r="A12" s="38">
+        <v>64</v>
+      </c>
+      <c r="B12" s="38">
         <v>43</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="38">
         <v>110</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="41">
         <v>52.132701421800952</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="45">
         <f>D13</f>
         <v>72.511848341232238</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <f>A13</f>
         <v>90</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="46">
         <f>F12</f>
         <v>72.511848341232238</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="A13" s="38">
         <v>90</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="38">
         <v>35</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="38">
         <v>153</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="41">
         <v>72.511848341232238</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="45">
         <f>D14</f>
         <v>89.099526066350705</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <f>A14</f>
         <v>128</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="47">
         <f>G12</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="38">
         <v>128</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="38">
         <v>10</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="38">
         <v>188</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="41">
         <v>89.099526066350705</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="48">
         <v>84</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="49">
         <f>J17</f>
         <v>116.31771428571429</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="46">
         <f>F13</f>
         <v>89.099526066350705</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="A15" s="38">
         <v>180</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="38">
         <v>13</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="38">
         <v>198</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="41">
         <v>93.838862559241704</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="47">
         <f>G13</f>
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51">
+      <c r="A16" s="38">
         <v>256</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="38">
         <v>0</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="38">
         <v>211</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="41">
         <v>100</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="70">
+      <c r="F16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="52">
         <f>G14</f>
         <v>116.31771428571429</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="47">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="38">
         <v>211</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="38">
         <v>211</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76" t="s">
+      <c r="D17" s="38"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="59">
         <f>J13+(J16-J12)*(J15-J13)/(J14-J12)</f>
         <v>116.31771428571429</v>
       </c>

--- a/particleID_summary.xlsx
+++ b/particleID_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50980CC-BF8B-4FE7-8471-BBA9549B174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51DBBE1-44F7-4711-B1C9-00FC1F12A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{7052B091-D471-4631-A263-E1BC3A5159A1}"/>
   </bookViews>
   <sheets>
     <sheet name="RFID rock sizes" sheetId="2" r:id="rId1"/>
@@ -885,6 +885,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,18 +943,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFDF8F-F407-4400-858A-9062197B06F7}">
   <dimension ref="B1:S240"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N163" sqref="N163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,30 +2292,30 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="F2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="67"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -2339,7 +2339,7 @@
       <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="72" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="4">
@@ -2358,7 +2358,7 @@
       <c r="R3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="72" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       <c r="I4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="69"/>
+      <c r="J4" s="73"/>
       <c r="L4" s="6">
         <v>90</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="R4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="69"/>
+      <c r="S4" s="73"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
@@ -2643,11 +2643,11 @@
       <c r="J10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="L10" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="11">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -2693,10 +2693,10 @@
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="67">
         <v>44389</v>
       </c>
-      <c r="N11" s="64"/>
+      <c r="N11" s="68"/>
       <c r="O11" s="11">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -2738,10 +2738,10 @@
       <c r="L12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="67">
         <v>44389</v>
       </c>
-      <c r="N12" s="64"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="11">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -2783,10 +2783,10 @@
       <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="67">
         <v>44389</v>
       </c>
-      <c r="N13" s="64"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="11">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -2867,11 +2867,11 @@
       <c r="J15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="11">
         <f t="shared" si="0"/>
         <v>1011</v>
@@ -2918,10 +2918,10 @@
       <c r="L16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="67">
         <v>44638</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="11">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -2964,10 +2964,10 @@
       <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="67">
         <v>44638</v>
       </c>
-      <c r="N17" s="64"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="11">
         <f t="shared" si="0"/>
         <v>1013</v>
@@ -7980,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DDA353-7660-4CD7-8317-1897C5DB3F0B}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R179" sqref="R179"/>
     </sheetView>
   </sheetViews>
@@ -9095,506 +9095,506 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="79">
+      <c r="A139" s="63">
         <v>22.6</v>
       </c>
-      <c r="B139" s="80">
+      <c r="B139" s="64">
         <v>1039</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="79">
+      <c r="A140" s="63">
         <v>22.6</v>
       </c>
-      <c r="B140" s="80">
+      <c r="B140" s="64">
         <v>1040</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="79">
+      <c r="A141" s="63">
         <v>22.6</v>
       </c>
-      <c r="B141" s="80">
+      <c r="B141" s="64">
         <v>1041</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="79">
+      <c r="A142" s="63">
         <v>22.6</v>
       </c>
-      <c r="B142" s="80">
+      <c r="B142" s="64">
         <v>1042</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="79">
+      <c r="A143" s="63">
         <v>22.6</v>
       </c>
-      <c r="B143" s="80">
+      <c r="B143" s="64">
         <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="79">
+      <c r="A144" s="63">
         <v>22.6</v>
       </c>
-      <c r="B144" s="80">
+      <c r="B144" s="64">
         <v>1044</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="79">
+      <c r="A145" s="63">
         <v>22.6</v>
       </c>
-      <c r="B145" s="80">
+      <c r="B145" s="64">
         <v>1045</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="79">
+      <c r="A146" s="63">
         <v>22.6</v>
       </c>
-      <c r="B146" s="80">
+      <c r="B146" s="64">
         <v>1046</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="79">
+      <c r="A147" s="63">
         <v>22.6</v>
       </c>
-      <c r="B147" s="80">
+      <c r="B147" s="64">
         <v>1047</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="79">
+      <c r="A148" s="63">
         <v>22.6</v>
       </c>
-      <c r="B148" s="80">
+      <c r="B148" s="64">
         <v>1048</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="79">
+      <c r="A149" s="63">
         <v>22.6</v>
       </c>
-      <c r="B149" s="80">
+      <c r="B149" s="64">
         <v>1049</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="79">
+      <c r="A150" s="63">
         <v>22.6</v>
       </c>
-      <c r="B150" s="80">
+      <c r="B150" s="64">
         <v>1050</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="79">
+      <c r="A151" s="63">
         <v>22.6</v>
       </c>
-      <c r="B151" s="80">
+      <c r="B151" s="64">
         <v>1051</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="79">
+      <c r="A152" s="63">
         <v>22.6</v>
       </c>
-      <c r="B152" s="80">
+      <c r="B152" s="64">
         <v>1052</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="79">
+      <c r="A153" s="63">
         <v>22.6</v>
       </c>
-      <c r="B153" s="80">
+      <c r="B153" s="64">
         <v>1053</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="79">
+      <c r="A154" s="63">
         <v>22.6</v>
       </c>
-      <c r="B154" s="80">
+      <c r="B154" s="64">
         <v>1054</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="79">
+      <c r="A155" s="63">
         <v>22.6</v>
       </c>
-      <c r="B155" s="80">
+      <c r="B155" s="64">
         <v>1055</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="79">
+      <c r="A156" s="63">
         <v>22.6</v>
       </c>
-      <c r="B156" s="80">
+      <c r="B156" s="64">
         <v>1056</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="79">
+      <c r="A157" s="63">
         <v>22.6</v>
       </c>
-      <c r="B157" s="80">
+      <c r="B157" s="64">
         <v>1057</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="79">
+      <c r="A158" s="63">
         <v>22.6</v>
       </c>
-      <c r="B158" s="80">
+      <c r="B158" s="64">
         <v>1058</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="79">
+      <c r="A159" s="63">
         <v>22.6</v>
       </c>
-      <c r="B159" s="80">
+      <c r="B159" s="64">
         <v>1059</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="79">
+      <c r="A160" s="63">
         <v>22.6</v>
       </c>
-      <c r="B160" s="80">
+      <c r="B160" s="64">
         <v>1060</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="79">
+      <c r="A161" s="63">
         <v>22.6</v>
       </c>
-      <c r="B161" s="80">
+      <c r="B161" s="64">
         <v>1061</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="79">
+      <c r="A162" s="63">
         <v>22.6</v>
       </c>
-      <c r="B162" s="80">
+      <c r="B162" s="64">
         <v>1062</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="79">
+      <c r="A163" s="63">
         <v>22.6</v>
       </c>
-      <c r="B163" s="80">
+      <c r="B163" s="64">
         <v>1063</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="79">
+      <c r="A164" s="63">
         <v>22.6</v>
       </c>
-      <c r="B164" s="80">
+      <c r="B164" s="64">
         <v>1064</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="79">
+      <c r="A165" s="63">
         <v>22.6</v>
       </c>
-      <c r="B165" s="80">
+      <c r="B165" s="64">
         <v>1065</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="79">
+      <c r="A166" s="63">
         <v>22.6</v>
       </c>
-      <c r="B166" s="80">
+      <c r="B166" s="64">
         <v>1066</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="81">
-        <v>16</v>
-      </c>
-      <c r="B167" s="82">
+      <c r="A167" s="65">
+        <v>16</v>
+      </c>
+      <c r="B167" s="66">
         <v>1004</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="81">
-        <v>16</v>
-      </c>
-      <c r="B168" s="82">
+      <c r="A168" s="65">
+        <v>16</v>
+      </c>
+      <c r="B168" s="66">
         <v>1005</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="81">
-        <v>16</v>
-      </c>
-      <c r="B169" s="82">
+      <c r="A169" s="65">
+        <v>16</v>
+      </c>
+      <c r="B169" s="66">
         <v>1006</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="81">
-        <v>16</v>
-      </c>
-      <c r="B170" s="82">
+      <c r="A170" s="65">
+        <v>16</v>
+      </c>
+      <c r="B170" s="66">
         <v>1007</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="81">
-        <v>16</v>
-      </c>
-      <c r="B171" s="82">
+      <c r="A171" s="65">
+        <v>16</v>
+      </c>
+      <c r="B171" s="66">
         <v>1008</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="81">
-        <v>16</v>
-      </c>
-      <c r="B172" s="82">
+      <c r="A172" s="65">
+        <v>16</v>
+      </c>
+      <c r="B172" s="66">
         <v>1009</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="81">
-        <v>16</v>
-      </c>
-      <c r="B173" s="82">
+      <c r="A173" s="65">
+        <v>16</v>
+      </c>
+      <c r="B173" s="66">
         <v>1010</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="81">
-        <v>16</v>
-      </c>
-      <c r="B174" s="82">
+      <c r="A174" s="65">
+        <v>16</v>
+      </c>
+      <c r="B174" s="66">
         <v>1011</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="81">
-        <v>16</v>
-      </c>
-      <c r="B175" s="82">
+      <c r="A175" s="65">
+        <v>16</v>
+      </c>
+      <c r="B175" s="66">
         <v>1012</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="81">
-        <v>16</v>
-      </c>
-      <c r="B176" s="82">
+      <c r="A176" s="65">
+        <v>16</v>
+      </c>
+      <c r="B176" s="66">
         <v>1013</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="81">
-        <v>16</v>
-      </c>
-      <c r="B177" s="82">
+      <c r="A177" s="65">
+        <v>16</v>
+      </c>
+      <c r="B177" s="66">
         <v>1014</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="81">
-        <v>16</v>
-      </c>
-      <c r="B178" s="82">
+      <c r="A178" s="65">
+        <v>16</v>
+      </c>
+      <c r="B178" s="66">
         <v>1015</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="81">
-        <v>16</v>
-      </c>
-      <c r="B179" s="82">
+      <c r="A179" s="65">
+        <v>16</v>
+      </c>
+      <c r="B179" s="66">
         <v>1016</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="81">
-        <v>16</v>
-      </c>
-      <c r="B180" s="82">
+      <c r="A180" s="65">
+        <v>16</v>
+      </c>
+      <c r="B180" s="66">
         <v>1017</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="81">
-        <v>16</v>
-      </c>
-      <c r="B181" s="82">
+      <c r="A181" s="65">
+        <v>16</v>
+      </c>
+      <c r="B181" s="66">
         <v>1018</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="81">
-        <v>16</v>
-      </c>
-      <c r="B182" s="82">
+      <c r="A182" s="65">
+        <v>16</v>
+      </c>
+      <c r="B182" s="66">
         <v>1019</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="81">
-        <v>16</v>
-      </c>
-      <c r="B183" s="82">
+      <c r="A183" s="65">
+        <v>16</v>
+      </c>
+      <c r="B183" s="66">
         <v>1020</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="81">
-        <v>16</v>
-      </c>
-      <c r="B184" s="82">
+      <c r="A184" s="65">
+        <v>16</v>
+      </c>
+      <c r="B184" s="66">
         <v>1021</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="81">
-        <v>16</v>
-      </c>
-      <c r="B185" s="82">
+      <c r="A185" s="65">
+        <v>16</v>
+      </c>
+      <c r="B185" s="66">
         <v>1022</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="81">
-        <v>16</v>
-      </c>
-      <c r="B186" s="82">
+      <c r="A186" s="65">
+        <v>16</v>
+      </c>
+      <c r="B186" s="66">
         <v>1023</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="81">
-        <v>16</v>
-      </c>
-      <c r="B187" s="82">
+      <c r="A187" s="65">
+        <v>16</v>
+      </c>
+      <c r="B187" s="66">
         <v>1024</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="81">
-        <v>16</v>
-      </c>
-      <c r="B188" s="82">
+      <c r="A188" s="65">
+        <v>16</v>
+      </c>
+      <c r="B188" s="66">
         <v>1025</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="81">
-        <v>16</v>
-      </c>
-      <c r="B189" s="82">
+      <c r="A189" s="65">
+        <v>16</v>
+      </c>
+      <c r="B189" s="66">
         <v>1026</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="81">
-        <v>16</v>
-      </c>
-      <c r="B190" s="82">
+      <c r="A190" s="65">
+        <v>16</v>
+      </c>
+      <c r="B190" s="66">
         <v>1027</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="81">
-        <v>16</v>
-      </c>
-      <c r="B191" s="82">
+      <c r="A191" s="65">
+        <v>16</v>
+      </c>
+      <c r="B191" s="66">
         <v>1028</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="81">
-        <v>16</v>
-      </c>
-      <c r="B192" s="82">
+      <c r="A192" s="65">
+        <v>16</v>
+      </c>
+      <c r="B192" s="66">
         <v>1029</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="81">
-        <v>16</v>
-      </c>
-      <c r="B193" s="82">
+      <c r="A193" s="65">
+        <v>16</v>
+      </c>
+      <c r="B193" s="66">
         <v>1030</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="81">
-        <v>16</v>
-      </c>
-      <c r="B194" s="82">
+      <c r="A194" s="65">
+        <v>16</v>
+      </c>
+      <c r="B194" s="66">
         <v>1031</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="81">
-        <v>16</v>
-      </c>
-      <c r="B195" s="82">
+      <c r="A195" s="65">
+        <v>16</v>
+      </c>
+      <c r="B195" s="66">
         <v>1032</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="81">
-        <v>16</v>
-      </c>
-      <c r="B196" s="82">
+      <c r="A196" s="65">
+        <v>16</v>
+      </c>
+      <c r="B196" s="66">
         <v>1033</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="81">
-        <v>16</v>
-      </c>
-      <c r="B197" s="82">
+      <c r="A197" s="65">
+        <v>16</v>
+      </c>
+      <c r="B197" s="66">
         <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="81">
-        <v>16</v>
-      </c>
-      <c r="B198" s="82">
+      <c r="A198" s="65">
+        <v>16</v>
+      </c>
+      <c r="B198" s="66">
         <v>1035</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="81">
-        <v>16</v>
-      </c>
-      <c r="B199" s="82">
+      <c r="A199" s="65">
+        <v>16</v>
+      </c>
+      <c r="B199" s="66">
         <v>1036</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="81">
-        <v>16</v>
-      </c>
-      <c r="B200" s="82">
+      <c r="A200" s="65">
+        <v>16</v>
+      </c>
+      <c r="B200" s="66">
         <v>1037</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="81">
-        <v>16</v>
-      </c>
-      <c r="B201" s="82">
+      <c r="A201" s="65">
+        <v>16</v>
+      </c>
+      <c r="B201" s="66">
         <v>1038</v>
       </c>
     </row>
@@ -9644,19 +9644,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="F1" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="F1" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -9678,10 +9678,10 @@
         <v>34</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -9876,13 +9876,13 @@
       <c r="D10" s="41">
         <v>18.957345971563981</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
@@ -9904,10 +9904,10 @@
         <v>34</v>
       </c>
       <c r="H11" s="62"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
